--- a/documentacion/Requerimientos/07072022_GTE020PDT002f003_sDesarrollo Apk_Recuento_EC Experimental_Ajuste OSIS.xlsx
+++ b/documentacion/Requerimientos/07072022_GTE020PDT002f003_sDesarrollo Apk_Recuento_EC Experimental_Ajuste OSIS.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kmilo\Downloads\MAC2\DANE\DANE - Censo Economico\CE - Recuento\Entrega 2022\Ajuste 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos\Dane\2022\repo\dane_recuento_new_2022_personal\documentacion\Requerimientos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9411521C-1365-4CC1-B1F9-F2D422D71E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="3456" windowWidth="17280" windowHeight="8880" tabRatio="595" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="770" yWindow="3920" windowWidth="17280" windowHeight="8880" tabRatio="595" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1. DatosGenerales" sheetId="8" r:id="rId1"/>
@@ -47,13 +46,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Autor</author>
     <author>Diana Jara</author>
   </authors>
   <commentList>
-    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="A9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="A12" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A28" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="A28" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -127,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A48" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="A48" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -140,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I54" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="I54" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -158,12 +157,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Diana Jara</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="A4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -182,13 +181,13 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Diana Jara</author>
     <author>Camilo Ramirez Obando</author>
   </authors>
   <commentList>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{64C7C4D0-4BE8-41DD-BFBE-849DB5BF21C9}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -201,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M5" authorId="0" shapeId="0" xr:uid="{A8885945-6421-494C-AE1E-2BC0D412F2B2}">
+    <comment ref="M5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -216,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="1" shapeId="0" xr:uid="{8D1F4BEE-F3B0-4E24-8B17-73E3D1382542}">
+    <comment ref="B16" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -240,7 +239,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B26" authorId="1" shapeId="0" xr:uid="{FC1780AD-7806-4078-82E3-319A0B046503}">
+    <comment ref="B26" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -264,7 +263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B27" authorId="1" shapeId="0" xr:uid="{90C5627C-AD7E-4BB6-B93C-D752AF8C3F15}">
+    <comment ref="B27" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3104,7 +3103,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4002,6 +4001,21 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4011,114 +4025,99 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4167,56 +4166,56 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4231,7 +4230,7 @@
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6301,86 +6300,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A27" sqref="A27:J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.6640625" style="41" customWidth="1"/>
-    <col min="2" max="3" width="16.44140625" style="41" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="41"/>
-    <col min="5" max="5" width="16.44140625" style="41" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" style="41" customWidth="1"/>
-    <col min="7" max="8" width="11.44140625" style="41"/>
-    <col min="9" max="10" width="14.6640625" style="41" customWidth="1"/>
-    <col min="11" max="16384" width="11.44140625" style="41"/>
+    <col min="1" max="1" width="44.6328125" style="41" customWidth="1"/>
+    <col min="2" max="3" width="16.453125" style="41" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" style="41"/>
+    <col min="5" max="5" width="16.453125" style="41" customWidth="1"/>
+    <col min="6" max="6" width="26.36328125" style="41" customWidth="1"/>
+    <col min="7" max="8" width="11.453125" style="41"/>
+    <col min="9" max="10" width="14.6328125" style="41" customWidth="1"/>
+    <col min="11" max="16384" width="11.453125" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="98"/>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="118" t="s">
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="95" t="s">
         <v>258</v>
       </c>
-      <c r="J1" s="118"/>
-    </row>
-    <row r="2" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="95"/>
+    </row>
+    <row r="2" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="98"/>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="118" t="s">
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="118"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="103" t="s">
+      <c r="J2" s="95"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-    </row>
-    <row r="5" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+    </row>
+    <row r="5" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="119" t="s">
         <v>259</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-    </row>
-    <row r="6" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+    </row>
+    <row r="6" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="42" t="s">
         <v>5</v>
       </c>
@@ -6397,44 +6396,44 @@
       <c r="F6" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-    </row>
-    <row r="7" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+    </row>
+    <row r="7" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="104" t="s">
+      <c r="B7" s="119" t="s">
         <v>260</v>
       </c>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-    </row>
-    <row r="8" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+    </row>
+    <row r="8" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="119" t="s">
         <v>261</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-    </row>
-    <row r="9" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="119"/>
+    </row>
+    <row r="9" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="42" t="s">
         <v>11</v>
       </c>
@@ -6448,254 +6447,254 @@
       <c r="E9" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="105"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="107"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="114"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="116"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="111"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-    </row>
-    <row r="11" spans="1:10" s="43" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="99" t="s">
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+    </row>
+    <row r="11" spans="1:10" s="43" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="99"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="101" t="s">
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="101"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101"/>
-    </row>
-    <row r="14" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="108" t="s">
+      <c r="B13" s="107"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+    </row>
+    <row r="14" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="104" t="s">
         <v>264</v>
       </c>
-      <c r="B14" s="109"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="109"/>
-      <c r="H14" s="109"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="109"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="101" t="s">
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="105"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="101"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="101"/>
-    </row>
-    <row r="16" spans="1:10" ht="48.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="110" t="s">
+      <c r="B15" s="107"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
+    </row>
+    <row r="16" spans="1:10" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="106" t="s">
         <v>263</v>
       </c>
-      <c r="B16" s="110"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-    </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="101" t="s">
+      <c r="B16" s="106"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="106"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="101"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="101"/>
-    </row>
-    <row r="18" spans="1:10" ht="39.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="110" t="s">
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="107"/>
+    </row>
+    <row r="18" spans="1:10" ht="39.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="106" t="s">
         <v>262</v>
       </c>
-      <c r="B18" s="110"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="110"/>
-    </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="101" t="s">
+      <c r="B18" s="106"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="106"/>
+    </row>
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="101"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="101"/>
-      <c r="J19" s="101"/>
-    </row>
-    <row r="20" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="108" t="s">
+      <c r="B19" s="107"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="107"/>
+    </row>
+    <row r="20" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="104" t="s">
         <v>595</v>
       </c>
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="109"/>
-    </row>
-    <row r="21" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="99" t="s">
+      <c r="B20" s="105"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="105"/>
+    </row>
+    <row r="21" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="99"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
-    </row>
-    <row r="23" spans="1:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="110"/>
-      <c r="B23" s="110"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="110"/>
-      <c r="I23" s="110"/>
-      <c r="J23" s="110"/>
-    </row>
-    <row r="24" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="99" t="s">
+      <c r="B22" s="102"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="102"/>
+    </row>
+    <row r="23" spans="1:10" ht="33.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="106"/>
+      <c r="B23" s="106"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="106"/>
+      <c r="J23" s="106"/>
+    </row>
+    <row r="24" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="99"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="99"/>
-      <c r="J25" s="99"/>
-    </row>
-    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="101" t="s">
+      <c r="B25" s="102"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="102"/>
+    </row>
+    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="101"/>
-      <c r="C26" s="101"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="101"/>
-      <c r="J26" s="101"/>
-    </row>
-    <row r="27" spans="1:10" ht="132.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="108" t="s">
+      <c r="B26" s="107"/>
+      <c r="C26" s="107"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="107"/>
+      <c r="G26" s="107"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="107"/>
+    </row>
+    <row r="27" spans="1:10" ht="132.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="104" t="s">
         <v>605</v>
       </c>
-      <c r="B27" s="109"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109"/>
-    </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="101" t="s">
+      <c r="B27" s="105"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="105"/>
+    </row>
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="101"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="101"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="101"/>
-      <c r="J28" s="101"/>
-    </row>
-    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="107"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="107"/>
+      <c r="H28" s="107"/>
+      <c r="I28" s="107"/>
+      <c r="J28" s="107"/>
+    </row>
+    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="102" t="s">
+      <c r="B29" s="120" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="102"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="102"/>
-      <c r="I29" s="102"/>
-      <c r="J29" s="102"/>
-    </row>
-    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="120"/>
+      <c r="D29" s="120"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="120"/>
+      <c r="H29" s="120"/>
+      <c r="I29" s="120"/>
+      <c r="J29" s="120"/>
+    </row>
+    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="58"/>
       <c r="B30" s="52"/>
       <c r="C30" s="53"/>
@@ -6707,365 +6706,365 @@
       <c r="I30" s="53"/>
       <c r="J30" s="54"/>
     </row>
-    <row r="31" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="68" t="s">
         <v>536</v>
       </c>
-      <c r="B31" s="112" t="s">
+      <c r="B31" s="108" t="s">
         <v>541</v>
       </c>
-      <c r="C31" s="113"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="113"/>
-      <c r="H31" s="113"/>
-      <c r="I31" s="113"/>
-      <c r="J31" s="114"/>
-    </row>
-    <row r="32" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="109"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="109"/>
+      <c r="I31" s="109"/>
+      <c r="J31" s="110"/>
+    </row>
+    <row r="32" spans="1:10" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="68" t="s">
         <v>537</v>
       </c>
-      <c r="B32" s="112" t="s">
+      <c r="B32" s="108" t="s">
         <v>596</v>
       </c>
-      <c r="C32" s="113"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="113"/>
-      <c r="H32" s="113"/>
-      <c r="I32" s="113"/>
-      <c r="J32" s="114"/>
-    </row>
-    <row r="33" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="109"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="109"/>
+      <c r="H32" s="109"/>
+      <c r="I32" s="109"/>
+      <c r="J32" s="110"/>
+    </row>
+    <row r="33" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="68" t="s">
         <v>537</v>
       </c>
-      <c r="B33" s="112" t="s">
+      <c r="B33" s="108" t="s">
         <v>540</v>
       </c>
-      <c r="C33" s="113"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="113"/>
-      <c r="I33" s="113"/>
-      <c r="J33" s="114"/>
-    </row>
-    <row r="34" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="109"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="109"/>
+      <c r="H33" s="109"/>
+      <c r="I33" s="109"/>
+      <c r="J33" s="110"/>
+    </row>
+    <row r="34" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="68" t="s">
         <v>537</v>
       </c>
-      <c r="B34" s="112" t="s">
+      <c r="B34" s="108" t="s">
         <v>538</v>
       </c>
-      <c r="C34" s="113"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="113"/>
-      <c r="G34" s="113"/>
-      <c r="H34" s="113"/>
-      <c r="I34" s="113"/>
-      <c r="J34" s="114"/>
-    </row>
-    <row r="35" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="109"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="109"/>
+      <c r="H34" s="109"/>
+      <c r="I34" s="109"/>
+      <c r="J34" s="110"/>
+    </row>
+    <row r="35" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="68" t="s">
         <v>537</v>
       </c>
-      <c r="B35" s="112" t="s">
+      <c r="B35" s="108" t="s">
         <v>539</v>
       </c>
-      <c r="C35" s="113"/>
-      <c r="D35" s="113"/>
-      <c r="E35" s="113"/>
-      <c r="F35" s="113"/>
-      <c r="G35" s="113"/>
-      <c r="H35" s="113"/>
-      <c r="I35" s="113"/>
-      <c r="J35" s="114"/>
-    </row>
-    <row r="36" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="109"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="109"/>
+      <c r="F35" s="109"/>
+      <c r="G35" s="109"/>
+      <c r="H35" s="109"/>
+      <c r="I35" s="109"/>
+      <c r="J35" s="110"/>
+    </row>
+    <row r="36" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="77" t="s">
         <v>600</v>
       </c>
-      <c r="B36" s="115" t="s">
+      <c r="B36" s="111" t="s">
         <v>601</v>
       </c>
-      <c r="C36" s="116"/>
-      <c r="D36" s="116"/>
-      <c r="E36" s="116"/>
-      <c r="F36" s="116"/>
-      <c r="G36" s="116"/>
-      <c r="H36" s="116"/>
-      <c r="I36" s="116"/>
-      <c r="J36" s="117"/>
-    </row>
-    <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.3">
+      <c r="C36" s="112"/>
+      <c r="D36" s="112"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="112"/>
+      <c r="G36" s="112"/>
+      <c r="H36" s="112"/>
+      <c r="I36" s="112"/>
+      <c r="J36" s="113"/>
+    </row>
+    <row r="37" spans="1:10" ht="32" x14ac:dyDescent="0.35">
       <c r="A37" s="78" t="s">
         <v>600</v>
       </c>
-      <c r="B37" s="116" t="s">
+      <c r="B37" s="112" t="s">
         <v>602</v>
       </c>
-      <c r="C37" s="116"/>
-      <c r="D37" s="116"/>
-      <c r="E37" s="116"/>
-      <c r="F37" s="116"/>
-      <c r="G37" s="116"/>
-      <c r="H37" s="116"/>
-      <c r="I37" s="116"/>
-      <c r="J37" s="117"/>
-    </row>
-    <row r="38" spans="1:10" ht="45.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="112"/>
+      <c r="D37" s="112"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="112"/>
+      <c r="G37" s="112"/>
+      <c r="H37" s="112"/>
+      <c r="I37" s="112"/>
+      <c r="J37" s="113"/>
+    </row>
+    <row r="38" spans="1:10" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="79" t="s">
         <v>603</v>
       </c>
-      <c r="B38" s="115" t="s">
+      <c r="B38" s="111" t="s">
         <v>597</v>
       </c>
-      <c r="C38" s="116"/>
-      <c r="D38" s="116"/>
-      <c r="E38" s="116"/>
-      <c r="F38" s="116"/>
-      <c r="G38" s="116"/>
-      <c r="H38" s="116"/>
-      <c r="I38" s="116"/>
-      <c r="J38" s="117"/>
-    </row>
-    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="112"/>
+      <c r="D38" s="112"/>
+      <c r="E38" s="112"/>
+      <c r="F38" s="112"/>
+      <c r="G38" s="112"/>
+      <c r="H38" s="112"/>
+      <c r="I38" s="112"/>
+      <c r="J38" s="113"/>
+    </row>
+    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="44"/>
-      <c r="B39" s="94"/>
-      <c r="C39" s="95"/>
-      <c r="D39" s="95"/>
-      <c r="E39" s="95"/>
-      <c r="F39" s="95"/>
-      <c r="G39" s="95"/>
-      <c r="H39" s="95"/>
-      <c r="I39" s="95"/>
-      <c r="J39" s="96"/>
-    </row>
-    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="99"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="100"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="100"/>
+      <c r="J39" s="101"/>
+    </row>
+    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="44"/>
-      <c r="B40" s="94"/>
-      <c r="C40" s="95"/>
-      <c r="D40" s="95"/>
-      <c r="E40" s="95"/>
-      <c r="F40" s="95"/>
-      <c r="G40" s="95"/>
-      <c r="H40" s="95"/>
-      <c r="I40" s="95"/>
-      <c r="J40" s="96"/>
-    </row>
-    <row r="41" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="99" t="s">
+      <c r="B40" s="99"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="100"/>
+      <c r="H40" s="100"/>
+      <c r="I40" s="100"/>
+      <c r="J40" s="101"/>
+    </row>
+    <row r="41" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="99"/>
-      <c r="C42" s="99"/>
-      <c r="D42" s="99"/>
-      <c r="E42" s="99"/>
-      <c r="F42" s="99"/>
-      <c r="G42" s="99"/>
-      <c r="H42" s="99"/>
-      <c r="I42" s="99"/>
-      <c r="J42" s="99"/>
-    </row>
-    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="102"/>
+      <c r="C42" s="102"/>
+      <c r="D42" s="102"/>
+      <c r="E42" s="102"/>
+      <c r="F42" s="102"/>
+      <c r="G42" s="102"/>
+      <c r="H42" s="102"/>
+      <c r="I42" s="102"/>
+      <c r="J42" s="102"/>
+    </row>
+    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="100" t="s">
+      <c r="B43" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="100"/>
-      <c r="D43" s="100"/>
-      <c r="E43" s="100"/>
+      <c r="C43" s="94"/>
+      <c r="D43" s="94"/>
+      <c r="E43" s="94"/>
       <c r="F43" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="G43" s="100" t="s">
+      <c r="G43" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="H43" s="100"/>
-      <c r="I43" s="100"/>
-      <c r="J43" s="100"/>
-    </row>
-    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H43" s="94"/>
+      <c r="I43" s="94"/>
+      <c r="J43" s="94"/>
+    </row>
+    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="44" t="s">
         <v>598</v>
       </c>
-      <c r="B44" s="94" t="s">
+      <c r="B44" s="99" t="s">
         <v>269</v>
       </c>
-      <c r="C44" s="95"/>
-      <c r="D44" s="95"/>
-      <c r="E44" s="96"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="100"/>
+      <c r="E44" s="101"/>
       <c r="F44" s="44"/>
-      <c r="G44" s="121" t="s">
+      <c r="G44" s="103" t="s">
         <v>270</v>
       </c>
-      <c r="H44" s="95"/>
-      <c r="I44" s="95"/>
-      <c r="J44" s="96"/>
-    </row>
-    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H44" s="100"/>
+      <c r="I44" s="100"/>
+      <c r="J44" s="101"/>
+    </row>
+    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="44" t="s">
         <v>267</v>
       </c>
-      <c r="B45" s="94" t="s">
+      <c r="B45" s="99" t="s">
         <v>268</v>
       </c>
-      <c r="C45" s="95"/>
-      <c r="D45" s="95"/>
-      <c r="E45" s="96"/>
+      <c r="C45" s="100"/>
+      <c r="D45" s="100"/>
+      <c r="E45" s="101"/>
       <c r="F45" s="44"/>
-      <c r="G45" s="121" t="s">
+      <c r="G45" s="103" t="s">
         <v>271</v>
       </c>
-      <c r="H45" s="95"/>
-      <c r="I45" s="95"/>
-      <c r="J45" s="96"/>
-    </row>
-    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H45" s="100"/>
+      <c r="I45" s="100"/>
+      <c r="J45" s="101"/>
+    </row>
+    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="44" t="s">
         <v>280</v>
       </c>
-      <c r="B46" s="94" t="s">
+      <c r="B46" s="99" t="s">
         <v>268</v>
       </c>
-      <c r="C46" s="95"/>
-      <c r="D46" s="95"/>
-      <c r="E46" s="96"/>
+      <c r="C46" s="100"/>
+      <c r="D46" s="100"/>
+      <c r="E46" s="101"/>
       <c r="F46" s="44"/>
-      <c r="G46" s="121" t="s">
+      <c r="G46" s="103" t="s">
         <v>281</v>
       </c>
-      <c r="H46" s="95"/>
-      <c r="I46" s="95"/>
-      <c r="J46" s="96"/>
-    </row>
-    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H46" s="100"/>
+      <c r="I46" s="100"/>
+      <c r="J46" s="101"/>
+    </row>
+    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="44"/>
-      <c r="B47" s="94"/>
-      <c r="C47" s="95"/>
-      <c r="D47" s="95"/>
-      <c r="E47" s="96"/>
+      <c r="B47" s="99"/>
+      <c r="C47" s="100"/>
+      <c r="D47" s="100"/>
+      <c r="E47" s="101"/>
       <c r="F47" s="44"/>
-      <c r="G47" s="94"/>
-      <c r="H47" s="95"/>
-      <c r="I47" s="95"/>
-      <c r="J47" s="96"/>
-    </row>
-    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="99" t="s">
+      <c r="G47" s="99"/>
+      <c r="H47" s="100"/>
+      <c r="I47" s="100"/>
+      <c r="J47" s="101"/>
+    </row>
+    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="B48" s="99"/>
-      <c r="C48" s="99"/>
-      <c r="D48" s="99"/>
-      <c r="E48" s="99"/>
-      <c r="F48" s="99"/>
-      <c r="G48" s="99"/>
-      <c r="H48" s="99"/>
-      <c r="I48" s="99"/>
-      <c r="J48" s="99"/>
-    </row>
-    <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="102"/>
+      <c r="C48" s="102"/>
+      <c r="D48" s="102"/>
+      <c r="E48" s="102"/>
+      <c r="F48" s="102"/>
+      <c r="G48" s="102"/>
+      <c r="H48" s="102"/>
+      <c r="I48" s="102"/>
+      <c r="J48" s="102"/>
+    </row>
+    <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="100" t="s">
+      <c r="B49" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="100"/>
-      <c r="D49" s="100"/>
-      <c r="E49" s="100"/>
+      <c r="C49" s="94"/>
+      <c r="D49" s="94"/>
+      <c r="E49" s="94"/>
       <c r="F49" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="G49" s="100" t="s">
+      <c r="G49" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="H49" s="100"/>
-      <c r="I49" s="100"/>
-      <c r="J49" s="100"/>
-    </row>
-    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H49" s="94"/>
+      <c r="I49" s="94"/>
+      <c r="J49" s="94"/>
+    </row>
+    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="44" t="s">
         <v>599</v>
       </c>
-      <c r="B50" s="94" t="s">
+      <c r="B50" s="99" t="s">
         <v>266</v>
       </c>
-      <c r="C50" s="95"/>
-      <c r="D50" s="95"/>
-      <c r="E50" s="96"/>
+      <c r="C50" s="100"/>
+      <c r="D50" s="100"/>
+      <c r="E50" s="101"/>
       <c r="F50" s="44" t="s">
         <v>265</v>
       </c>
-      <c r="G50" s="94"/>
-      <c r="H50" s="95"/>
-      <c r="I50" s="95"/>
-      <c r="J50" s="96"/>
-    </row>
-    <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G50" s="99"/>
+      <c r="H50" s="100"/>
+      <c r="I50" s="100"/>
+      <c r="J50" s="101"/>
+    </row>
+    <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="44"/>
-      <c r="B51" s="94"/>
-      <c r="C51" s="95"/>
-      <c r="D51" s="95"/>
-      <c r="E51" s="96"/>
+      <c r="B51" s="99"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="100"/>
+      <c r="E51" s="101"/>
       <c r="F51" s="44"/>
-      <c r="G51" s="94"/>
-      <c r="H51" s="95"/>
-      <c r="I51" s="95"/>
-      <c r="J51" s="96"/>
-    </row>
-    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="99" t="s">
+      <c r="G51" s="99"/>
+      <c r="H51" s="100"/>
+      <c r="I51" s="100"/>
+      <c r="J51" s="101"/>
+    </row>
+    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="99"/>
-      <c r="C53" s="99"/>
-      <c r="D53" s="99"/>
-      <c r="E53" s="99"/>
-      <c r="F53" s="99"/>
-      <c r="G53" s="99"/>
-      <c r="H53" s="99"/>
-      <c r="I53" s="99"/>
-      <c r="J53" s="99"/>
-    </row>
-    <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="102"/>
+      <c r="C53" s="102"/>
+      <c r="D53" s="102"/>
+      <c r="E53" s="102"/>
+      <c r="F53" s="102"/>
+      <c r="G53" s="102"/>
+      <c r="H53" s="102"/>
+      <c r="I53" s="102"/>
+      <c r="J53" s="102"/>
+    </row>
+    <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="42"/>
-      <c r="B54" s="100" t="s">
+      <c r="B54" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="100"/>
-      <c r="D54" s="100" t="s">
+      <c r="C54" s="94"/>
+      <c r="D54" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="E54" s="100"/>
-      <c r="F54" s="100"/>
-      <c r="G54" s="100" t="s">
+      <c r="E54" s="94"/>
+      <c r="F54" s="94"/>
+      <c r="G54" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="H54" s="100"/>
-      <c r="I54" s="100" t="s">
+      <c r="H54" s="94"/>
+      <c r="I54" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="J54" s="100"/>
-    </row>
-    <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J54" s="94"/>
+    </row>
+    <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="B55" s="97" t="s">
+      <c r="B55" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="C55" s="97"/>
+      <c r="C55" s="121"/>
       <c r="D55" s="98"/>
       <c r="E55" s="98"/>
       <c r="F55" s="98"/>
@@ -7074,14 +7073,14 @@
       <c r="I55" s="98"/>
       <c r="J55" s="98"/>
     </row>
-    <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="B56" s="97" t="s">
+      <c r="B56" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="C56" s="97"/>
+      <c r="C56" s="121"/>
       <c r="D56" s="98"/>
       <c r="E56" s="98"/>
       <c r="F56" s="98"/>
@@ -7092,6 +7091,58 @@
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B39:J39"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B38:J38"/>
     <mergeCell ref="B49:E49"/>
     <mergeCell ref="G49:J49"/>
     <mergeCell ref="I2:J2"/>
@@ -7108,63 +7159,11 @@
     <mergeCell ref="G44:J44"/>
     <mergeCell ref="G45:J45"/>
     <mergeCell ref="G46:J46"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="B33:J33"/>
-    <mergeCell ref="B34:J34"/>
-    <mergeCell ref="B35:J35"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="B39:J39"/>
-    <mergeCell ref="B40:J40"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:J55"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G44" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G45" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G46" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G44" r:id="rId1"/>
+    <hyperlink ref="G45" r:id="rId2"/>
+    <hyperlink ref="G46" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
@@ -7174,7 +7173,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -7182,64 +7181,64 @@
       <selection pane="bottomLeft" activeCell="B9" sqref="B9:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="19.33203125" style="45" customWidth="1"/>
-    <col min="3" max="3" width="57.33203125" style="45" customWidth="1"/>
+    <col min="1" max="2" width="19.36328125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="57.36328125" style="45" customWidth="1"/>
     <col min="4" max="4" width="68" style="45" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="21.6328125" style="45" customWidth="1"/>
     <col min="6" max="6" width="24" style="45" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" style="45" customWidth="1"/>
-    <col min="8" max="8" width="22.5546875" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="11.44140625" style="45"/>
+    <col min="7" max="7" width="14.54296875" style="45" customWidth="1"/>
+    <col min="8" max="8" width="22.54296875" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="11.453125" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="98"/>
       <c r="B1" s="98"/>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="118" t="s">
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="118"/>
-    </row>
-    <row r="2" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H1" s="95"/>
+    </row>
+    <row r="2" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="98"/>
       <c r="B2" s="98"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="118" t="s">
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="118"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="99" t="s">
+      <c r="H2" s="95"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+    </row>
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.35">
       <c r="A5" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="122"/>
+      <c r="C5" s="132"/>
       <c r="D5" s="59" t="s">
         <v>25</v>
       </c>
@@ -7249,19 +7248,19 @@
       <c r="F5" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="122" t="s">
+      <c r="G5" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="122"/>
-    </row>
-    <row r="6" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="132"/>
+    </row>
+    <row r="6" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="56">
         <v>1</v>
       </c>
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="124" t="s">
         <v>279</v>
       </c>
-      <c r="C6" s="124"/>
+      <c r="C6" s="125"/>
       <c r="D6" s="67" t="s">
         <v>542</v>
       </c>
@@ -7271,19 +7270,19 @@
       <c r="F6" s="65" t="s">
         <v>543</v>
       </c>
-      <c r="G6" s="115" t="s">
+      <c r="G6" s="111" t="s">
         <v>273</v>
       </c>
-      <c r="H6" s="117"/>
-    </row>
-    <row r="7" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="113"/>
+    </row>
+    <row r="7" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="63">
         <v>2</v>
       </c>
-      <c r="B7" s="129" t="s">
+      <c r="B7" s="130" t="s">
         <v>278</v>
       </c>
-      <c r="C7" s="130"/>
+      <c r="C7" s="131"/>
       <c r="D7" s="66" t="s">
         <v>544</v>
       </c>
@@ -7293,19 +7292,19 @@
       <c r="F7" s="66" t="s">
         <v>274</v>
       </c>
-      <c r="G7" s="125" t="s">
+      <c r="G7" s="126" t="s">
         <v>275</v>
       </c>
-      <c r="H7" s="126"/>
-    </row>
-    <row r="8" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="127"/>
+    </row>
+    <row r="8" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="56">
         <v>3</v>
       </c>
-      <c r="B8" s="94" t="s">
+      <c r="B8" s="99" t="s">
         <v>276</v>
       </c>
-      <c r="C8" s="96"/>
+      <c r="C8" s="101"/>
       <c r="D8" s="65" t="s">
         <v>545</v>
       </c>
@@ -7315,19 +7314,19 @@
       <c r="F8" s="65" t="s">
         <v>277</v>
       </c>
-      <c r="G8" s="115" t="s">
+      <c r="G8" s="111" t="s">
         <v>288</v>
       </c>
-      <c r="H8" s="117"/>
-    </row>
-    <row r="9" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="113"/>
+    </row>
+    <row r="9" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="56">
         <v>4</v>
       </c>
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="99" t="s">
         <v>282</v>
       </c>
-      <c r="C9" s="96"/>
+      <c r="C9" s="101"/>
       <c r="D9" s="65" t="s">
         <v>283</v>
       </c>
@@ -7337,19 +7336,19 @@
       <c r="F9" s="65" t="s">
         <v>284</v>
       </c>
-      <c r="G9" s="115" t="s">
+      <c r="G9" s="111" t="s">
         <v>287</v>
       </c>
-      <c r="H9" s="117"/>
-    </row>
-    <row r="10" spans="1:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="113"/>
+    </row>
+    <row r="10" spans="1:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="56">
         <v>5</v>
       </c>
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="99" t="s">
         <v>546</v>
       </c>
-      <c r="C10" s="96"/>
+      <c r="C10" s="101"/>
       <c r="D10" s="65" t="s">
         <v>547</v>
       </c>
@@ -7359,19 +7358,19 @@
       <c r="F10" s="65" t="s">
         <v>285</v>
       </c>
-      <c r="G10" s="115" t="s">
+      <c r="G10" s="111" t="s">
         <v>548</v>
       </c>
-      <c r="H10" s="117"/>
-    </row>
-    <row r="11" spans="1:8" ht="147.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="113"/>
+    </row>
+    <row r="11" spans="1:8" ht="147.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="62">
         <v>6</v>
       </c>
-      <c r="B11" s="94" t="s">
+      <c r="B11" s="99" t="s">
         <v>546</v>
       </c>
-      <c r="C11" s="96"/>
+      <c r="C11" s="101"/>
       <c r="D11" s="61" t="s">
         <v>549</v>
       </c>
@@ -7381,19 +7380,19 @@
       <c r="F11" s="65" t="s">
         <v>286</v>
       </c>
-      <c r="G11" s="127" t="s">
+      <c r="G11" s="128" t="s">
         <v>550</v>
       </c>
-      <c r="H11" s="128"/>
-    </row>
-    <row r="12" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="129"/>
+    </row>
+    <row r="12" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="76">
         <v>7</v>
       </c>
-      <c r="B12" s="131" t="s">
+      <c r="B12" s="122" t="s">
         <v>551</v>
       </c>
-      <c r="C12" s="132"/>
+      <c r="C12" s="123"/>
       <c r="D12" s="61" t="s">
         <v>552</v>
       </c>
@@ -7403,19 +7402,19 @@
       <c r="F12" s="67" t="s">
         <v>553</v>
       </c>
-      <c r="G12" s="123" t="s">
+      <c r="G12" s="124" t="s">
         <v>554</v>
       </c>
-      <c r="H12" s="124"/>
-    </row>
-    <row r="13" spans="1:8" ht="59.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="125"/>
+    </row>
+    <row r="13" spans="1:8" ht="59.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="56">
         <v>8</v>
       </c>
-      <c r="B13" s="94" t="s">
+      <c r="B13" s="99" t="s">
         <v>604</v>
       </c>
-      <c r="C13" s="96"/>
+      <c r="C13" s="101"/>
       <c r="D13" s="65" t="s">
         <v>597</v>
       </c>
@@ -7424,220 +7423,220 @@
       <c r="G13" s="98"/>
       <c r="H13" s="98"/>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="56"/>
-      <c r="B14" s="94"/>
-      <c r="C14" s="96"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="101"/>
       <c r="D14" s="56"/>
       <c r="E14" s="47"/>
       <c r="F14" s="56"/>
       <c r="G14" s="98"/>
       <c r="H14" s="98"/>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="56"/>
-      <c r="B15" s="94"/>
-      <c r="C15" s="96"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="101"/>
       <c r="D15" s="56"/>
       <c r="E15" s="47"/>
       <c r="F15" s="56"/>
       <c r="G15" s="98"/>
       <c r="H15" s="98"/>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="56"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="96"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="101"/>
       <c r="D16" s="56"/>
       <c r="E16" s="47"/>
       <c r="F16" s="56"/>
       <c r="G16" s="98"/>
       <c r="H16" s="98"/>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="56"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="96"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="101"/>
       <c r="D17" s="56"/>
       <c r="E17" s="47"/>
       <c r="F17" s="56"/>
       <c r="G17" s="98"/>
       <c r="H17" s="98"/>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="56"/>
-      <c r="B18" s="94"/>
-      <c r="C18" s="96"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="101"/>
       <c r="D18" s="56"/>
       <c r="E18" s="47"/>
       <c r="F18" s="56"/>
       <c r="G18" s="98"/>
       <c r="H18" s="98"/>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="56"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="96"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="101"/>
       <c r="D19" s="56"/>
       <c r="E19" s="47"/>
       <c r="F19" s="56"/>
       <c r="G19" s="98"/>
       <c r="H19" s="98"/>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="56"/>
-      <c r="B20" s="94"/>
-      <c r="C20" s="96"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="101"/>
       <c r="D20" s="56"/>
       <c r="E20" s="47"/>
       <c r="F20" s="56"/>
       <c r="G20" s="98"/>
       <c r="H20" s="98"/>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="56"/>
-      <c r="B21" s="94"/>
-      <c r="C21" s="96"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="101"/>
       <c r="D21" s="56"/>
       <c r="E21" s="47"/>
       <c r="F21" s="56"/>
       <c r="G21" s="98"/>
       <c r="H21" s="98"/>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="56"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="96"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="101"/>
       <c r="D22" s="56"/>
       <c r="E22" s="47"/>
       <c r="F22" s="56"/>
       <c r="G22" s="98"/>
       <c r="H22" s="98"/>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="56"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="96"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="101"/>
       <c r="D23" s="56"/>
       <c r="E23" s="47"/>
       <c r="F23" s="56"/>
       <c r="G23" s="98"/>
       <c r="H23" s="98"/>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="56"/>
-      <c r="B24" s="94"/>
-      <c r="C24" s="96"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="101"/>
       <c r="D24" s="56"/>
       <c r="E24" s="47"/>
       <c r="F24" s="56"/>
       <c r="G24" s="98"/>
       <c r="H24" s="98"/>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="56"/>
-      <c r="B25" s="94"/>
-      <c r="C25" s="96"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="101"/>
       <c r="D25" s="56"/>
       <c r="E25" s="47"/>
       <c r="F25" s="56"/>
       <c r="G25" s="98"/>
       <c r="H25" s="98"/>
     </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="56"/>
-      <c r="B26" s="94"/>
-      <c r="C26" s="96"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="101"/>
       <c r="D26" s="56"/>
       <c r="E26" s="47"/>
       <c r="F26" s="56"/>
       <c r="G26" s="98"/>
       <c r="H26" s="98"/>
     </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="56"/>
-      <c r="B27" s="94"/>
-      <c r="C27" s="96"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="101"/>
       <c r="D27" s="56"/>
       <c r="E27" s="47"/>
       <c r="F27" s="56"/>
       <c r="G27" s="98"/>
       <c r="H27" s="98"/>
     </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="56"/>
-      <c r="B28" s="94"/>
-      <c r="C28" s="96"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="101"/>
       <c r="D28" s="56"/>
       <c r="E28" s="47"/>
       <c r="F28" s="56"/>
       <c r="G28" s="98"/>
       <c r="H28" s="98"/>
     </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="56"/>
-      <c r="B29" s="94"/>
-      <c r="C29" s="96"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="101"/>
       <c r="D29" s="56"/>
       <c r="E29" s="47"/>
       <c r="F29" s="56"/>
       <c r="G29" s="98"/>
       <c r="H29" s="98"/>
     </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="56"/>
-      <c r="B30" s="94"/>
-      <c r="C30" s="96"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="101"/>
       <c r="D30" s="56"/>
       <c r="E30" s="47"/>
       <c r="F30" s="56"/>
       <c r="G30" s="98"/>
       <c r="H30" s="98"/>
     </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="56"/>
-      <c r="B31" s="94"/>
-      <c r="C31" s="96"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="101"/>
       <c r="D31" s="56"/>
       <c r="E31" s="47"/>
       <c r="F31" s="56"/>
       <c r="G31" s="98"/>
       <c r="H31" s="98"/>
     </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="56"/>
-      <c r="B32" s="94"/>
-      <c r="C32" s="96"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="101"/>
       <c r="D32" s="56"/>
       <c r="E32" s="47"/>
       <c r="F32" s="56"/>
       <c r="G32" s="98"/>
       <c r="H32" s="98"/>
     </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="56"/>
-      <c r="B33" s="94"/>
-      <c r="C33" s="96"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="101"/>
       <c r="D33" s="56"/>
       <c r="E33" s="47"/>
       <c r="F33" s="56"/>
       <c r="G33" s="98"/>
       <c r="H33" s="98"/>
     </row>
-    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="56"/>
-      <c r="B34" s="94"/>
-      <c r="C34" s="96"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="101"/>
       <c r="D34" s="56"/>
       <c r="E34" s="47"/>
       <c r="F34" s="56"/>
       <c r="G34" s="98"/>
       <c r="H34" s="98"/>
     </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="56"/>
-      <c r="B35" s="94"/>
-      <c r="C35" s="96"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="101"/>
       <c r="D35" s="56"/>
       <c r="E35" s="47"/>
       <c r="F35" s="56"/>
@@ -7646,51 +7645,12 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C1:F2"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A4:H4"/>
@@ -7707,12 +7667,51 @@
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="C1:F2"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -7721,7 +7720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
@@ -7729,21 +7728,21 @@
       <selection pane="bottomLeft" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.5546875" style="41" customWidth="1"/>
-    <col min="2" max="3" width="16.44140625" style="41" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="41"/>
-    <col min="5" max="5" width="16.44140625" style="41" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" style="41" customWidth="1"/>
-    <col min="7" max="10" width="11.44140625" style="41"/>
-    <col min="11" max="11" width="3.44140625" style="41" customWidth="1"/>
-    <col min="12" max="12" width="24.6640625" style="45" customWidth="1"/>
-    <col min="13" max="13" width="33.6640625" style="45" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="41"/>
+    <col min="1" max="1" width="38.54296875" style="41" customWidth="1"/>
+    <col min="2" max="3" width="16.453125" style="41" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" style="41"/>
+    <col min="5" max="5" width="16.453125" style="41" customWidth="1"/>
+    <col min="6" max="6" width="26.36328125" style="41" customWidth="1"/>
+    <col min="7" max="10" width="11.453125" style="41"/>
+    <col min="11" max="11" width="3.453125" style="41" customWidth="1"/>
+    <col min="12" max="12" width="24.6328125" style="45" customWidth="1"/>
+    <col min="13" max="13" width="33.6328125" style="45" customWidth="1"/>
+    <col min="14" max="16384" width="11.453125" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="98"/>
       <c r="B1" s="143" t="s">
         <v>41</v>
@@ -7762,7 +7761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="98"/>
       <c r="B2" s="146"/>
       <c r="C2" s="147"/>
@@ -7779,7 +7778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="142" t="s">
         <v>47</v>
       </c>
@@ -7799,7 +7798,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="133"/>
       <c r="B5" s="134"/>
       <c r="C5" s="134"/>
@@ -7815,7 +7814,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="136"/>
       <c r="B6" s="137"/>
       <c r="C6" s="137"/>
@@ -7831,7 +7830,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="136"/>
       <c r="B7" s="137"/>
       <c r="C7" s="137"/>
@@ -7847,7 +7846,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="136"/>
       <c r="B8" s="137"/>
       <c r="C8" s="137"/>
@@ -7863,7 +7862,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="136"/>
       <c r="B9" s="137"/>
       <c r="C9" s="137"/>
@@ -7879,7 +7878,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="136"/>
       <c r="B10" s="137"/>
       <c r="C10" s="137"/>
@@ -7895,7 +7894,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="136"/>
       <c r="B11" s="137"/>
       <c r="C11" s="137"/>
@@ -7911,7 +7910,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="136"/>
       <c r="B12" s="137"/>
       <c r="C12" s="137"/>
@@ -7927,7 +7926,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="136"/>
       <c r="B13" s="137"/>
       <c r="C13" s="137"/>
@@ -7943,7 +7942,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="136"/>
       <c r="B14" s="137"/>
       <c r="C14" s="137"/>
@@ -7959,7 +7958,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="136"/>
       <c r="B15" s="137"/>
       <c r="C15" s="137"/>
@@ -7975,7 +7974,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="136"/>
       <c r="B16" s="137"/>
       <c r="C16" s="137"/>
@@ -7991,7 +7990,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="139"/>
       <c r="B17" s="140"/>
       <c r="C17" s="140"/>
@@ -8022,102 +8021,102 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A09591C-C4AB-40FC-8872-E5C0CC22CC1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomLeft" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="28.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="28.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" style="86" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" style="86" customWidth="1"/>
-    <col min="3" max="3" width="57.44140625" style="86" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="86" customWidth="1"/>
+    <col min="1" max="1" width="20.54296875" style="86" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" style="86" customWidth="1"/>
+    <col min="3" max="3" width="57.453125" style="86" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" style="86" customWidth="1"/>
     <col min="5" max="5" width="13" style="86" customWidth="1"/>
-    <col min="6" max="6" width="21.109375" style="86" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" style="86" customWidth="1"/>
-    <col min="8" max="9" width="19.6640625" style="86" customWidth="1"/>
-    <col min="10" max="10" width="31.6640625" style="86" customWidth="1"/>
-    <col min="11" max="11" width="32.44140625" style="86" customWidth="1"/>
-    <col min="12" max="12" width="28.6640625" style="86"/>
-    <col min="13" max="13" width="28.6640625" style="86" customWidth="1"/>
-    <col min="14" max="14" width="28.6640625" style="86"/>
-    <col min="15" max="15" width="37.5546875" style="86" customWidth="1"/>
-    <col min="16" max="16" width="91.6640625" style="86" customWidth="1"/>
-    <col min="17" max="16384" width="28.6640625" style="86"/>
+    <col min="6" max="6" width="21.08984375" style="86" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" style="86" customWidth="1"/>
+    <col min="8" max="9" width="19.6328125" style="86" customWidth="1"/>
+    <col min="10" max="10" width="31.6328125" style="86" customWidth="1"/>
+    <col min="11" max="11" width="54.1796875" style="86" customWidth="1"/>
+    <col min="12" max="12" width="28.6328125" style="86"/>
+    <col min="13" max="13" width="28.6328125" style="86" customWidth="1"/>
+    <col min="14" max="14" width="28.6328125" style="86"/>
+    <col min="15" max="15" width="37.54296875" style="86" customWidth="1"/>
+    <col min="16" max="16" width="91.6328125" style="86" customWidth="1"/>
+    <col min="17" max="16384" width="28.6328125" style="86"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="158"/>
-      <c r="B1" s="159"/>
-      <c r="C1" s="119" t="s">
+    <row r="1" spans="1:16" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="149"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
       <c r="O1" s="44" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="160"/>
-      <c r="B2" s="161"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
+    <row r="2" spans="1:16" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="151"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
       <c r="O2" s="44" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="162" t="s">
+    <row r="3" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="153" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="163"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163"/>
-      <c r="I4" s="163"/>
-      <c r="J4" s="163"/>
-      <c r="K4" s="163"/>
-      <c r="L4" s="163"/>
-      <c r="M4" s="163"/>
-      <c r="N4" s="163"/>
-      <c r="O4" s="163"/>
-    </row>
-    <row r="5" spans="1:16" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="154"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="154"/>
+      <c r="J4" s="154"/>
+      <c r="K4" s="154"/>
+      <c r="L4" s="154"/>
+      <c r="M4" s="154"/>
+      <c r="N4" s="154"/>
+      <c r="O4" s="154"/>
+    </row>
+    <row r="5" spans="1:16" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="164" t="s">
+      <c r="B5" s="155" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="165"/>
+      <c r="C5" s="156"/>
       <c r="D5" s="46" t="s">
         <v>66</v>
       </c>
@@ -8158,32 +8157,32 @@
         <v>594</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="151" t="s">
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="157" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="151"/>
-      <c r="C6" s="151"/>
-      <c r="D6" s="151"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="151"/>
-      <c r="H6" s="151"/>
-      <c r="I6" s="151"/>
-      <c r="J6" s="151"/>
-      <c r="K6" s="151"/>
-      <c r="L6" s="151"/>
-      <c r="M6" s="151"/>
-      <c r="N6" s="151"/>
-      <c r="O6" s="151"/>
+      <c r="B6" s="157"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="157"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="157"/>
+      <c r="J6" s="157"/>
+      <c r="K6" s="157"/>
+      <c r="L6" s="157"/>
+      <c r="M6" s="157"/>
+      <c r="N6" s="157"/>
+      <c r="O6" s="157"/>
       <c r="P6" s="75"/>
     </row>
-    <row r="7" spans="1:16" ht="75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="80" x14ac:dyDescent="0.35">
       <c r="A7" s="80" t="s">
         <v>606</v>
       </c>
-      <c r="B7" s="94"/>
-      <c r="C7" s="96"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="101"/>
       <c r="D7" s="82"/>
       <c r="E7" s="82"/>
       <c r="F7" s="87" t="s">
@@ -8211,14 +8210,14 @@
         <v>651</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="61" t="s">
         <v>606</v>
       </c>
-      <c r="B8" s="94" t="s">
+      <c r="B8" s="99" t="s">
         <v>517</v>
       </c>
-      <c r="C8" s="96"/>
+      <c r="C8" s="101"/>
       <c r="D8" s="82"/>
       <c r="E8" s="82"/>
       <c r="F8" s="61" t="s">
@@ -8250,14 +8249,14 @@
         <v>397</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A9" s="61" t="s">
         <v>606</v>
       </c>
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="99" t="s">
         <v>289</v>
       </c>
-      <c r="C9" s="96"/>
+      <c r="C9" s="101"/>
       <c r="D9" s="82" t="s">
         <v>290</v>
       </c>
@@ -8295,14 +8294,14 @@
         <v>310</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="111.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="111.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="61" t="s">
         <v>606</v>
       </c>
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="99" t="s">
         <v>296</v>
       </c>
-      <c r="C10" s="96"/>
+      <c r="C10" s="101"/>
       <c r="D10" s="82" t="s">
         <v>297</v>
       </c>
@@ -8338,14 +8337,14 @@
         <v>311</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="180" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="192" x14ac:dyDescent="0.35">
       <c r="A11" s="61" t="s">
         <v>606</v>
       </c>
-      <c r="B11" s="94" t="s">
+      <c r="B11" s="99" t="s">
         <v>303</v>
       </c>
-      <c r="C11" s="96"/>
+      <c r="C11" s="101"/>
       <c r="D11" s="82" t="s">
         <v>304</v>
       </c>
@@ -8381,14 +8380,14 @@
         <v>312</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="180" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="176" x14ac:dyDescent="0.35">
       <c r="A12" s="61" t="s">
         <v>606</v>
       </c>
-      <c r="B12" s="94" t="s">
+      <c r="B12" s="99" t="s">
         <v>313</v>
       </c>
-      <c r="C12" s="96"/>
+      <c r="C12" s="101"/>
       <c r="D12" s="82" t="s">
         <v>314</v>
       </c>
@@ -8424,14 +8423,14 @@
         <v>321</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="180" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="192" x14ac:dyDescent="0.35">
       <c r="A13" s="61" t="s">
         <v>606</v>
       </c>
-      <c r="B13" s="94" t="s">
+      <c r="B13" s="99" t="s">
         <v>322</v>
       </c>
-      <c r="C13" s="96"/>
+      <c r="C13" s="101"/>
       <c r="D13" s="82" t="s">
         <v>323</v>
       </c>
@@ -8467,14 +8466,14 @@
         <v>332</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="195" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="192" x14ac:dyDescent="0.35">
       <c r="A14" s="61" t="s">
         <v>606</v>
       </c>
-      <c r="B14" s="94" t="s">
+      <c r="B14" s="99" t="s">
         <v>652</v>
       </c>
-      <c r="C14" s="96"/>
+      <c r="C14" s="101"/>
       <c r="D14" s="82" t="s">
         <v>333</v>
       </c>
@@ -8510,14 +8509,14 @@
         <v>338</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="165" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="160" x14ac:dyDescent="0.35">
       <c r="A15" s="61" t="s">
         <v>606</v>
       </c>
-      <c r="B15" s="94" t="s">
+      <c r="B15" s="99" t="s">
         <v>339</v>
       </c>
-      <c r="C15" s="96"/>
+      <c r="C15" s="101"/>
       <c r="D15" s="82" t="s">
         <v>340</v>
       </c>
@@ -8553,14 +8552,14 @@
         <v>345</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="180" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="192" x14ac:dyDescent="0.35">
       <c r="A16" s="61" t="s">
         <v>606</v>
       </c>
-      <c r="B16" s="157" t="s">
+      <c r="B16" s="158" t="s">
         <v>653</v>
       </c>
-      <c r="C16" s="96"/>
+      <c r="C16" s="101"/>
       <c r="D16" s="82" t="s">
         <v>346</v>
       </c>
@@ -8596,14 +8595,14 @@
         <v>338</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="158.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="158.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="61" t="s">
         <v>606</v>
       </c>
-      <c r="B17" s="94" t="s">
+      <c r="B17" s="99" t="s">
         <v>350</v>
       </c>
-      <c r="C17" s="96"/>
+      <c r="C17" s="101"/>
       <c r="D17" s="82" t="s">
         <v>351</v>
       </c>
@@ -8639,14 +8638,14 @@
         <v>338</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="165" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="160" x14ac:dyDescent="0.35">
       <c r="A18" s="61" t="s">
         <v>606</v>
       </c>
-      <c r="B18" s="94" t="s">
+      <c r="B18" s="99" t="s">
         <v>353</v>
       </c>
-      <c r="C18" s="96"/>
+      <c r="C18" s="101"/>
       <c r="D18" s="82" t="s">
         <v>356</v>
       </c>
@@ -8682,14 +8681,14 @@
         <v>377</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="150" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="144" x14ac:dyDescent="0.35">
       <c r="A19" s="61" t="s">
         <v>606</v>
       </c>
-      <c r="B19" s="94" t="s">
+      <c r="B19" s="99" t="s">
         <v>360</v>
       </c>
-      <c r="C19" s="96"/>
+      <c r="C19" s="101"/>
       <c r="D19" s="82" t="s">
         <v>361</v>
       </c>
@@ -8725,14 +8724,14 @@
         <v>378</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="180" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="176" x14ac:dyDescent="0.35">
       <c r="A20" s="61" t="s">
         <v>606</v>
       </c>
-      <c r="B20" s="94" t="s">
+      <c r="B20" s="99" t="s">
         <v>366</v>
       </c>
-      <c r="C20" s="96"/>
+      <c r="C20" s="101"/>
       <c r="D20" s="82" t="s">
         <v>367</v>
       </c>
@@ -8768,14 +8767,14 @@
         <v>379</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="135" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="144" x14ac:dyDescent="0.35">
       <c r="A21" s="61" t="s">
         <v>606</v>
       </c>
-      <c r="B21" s="94" t="s">
+      <c r="B21" s="99" t="s">
         <v>380</v>
       </c>
-      <c r="C21" s="96"/>
+      <c r="C21" s="101"/>
       <c r="D21" s="82" t="s">
         <v>381</v>
       </c>
@@ -8811,14 +8810,14 @@
         <v>388</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="105" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="96" x14ac:dyDescent="0.35">
       <c r="A22" s="61" t="s">
         <v>606</v>
       </c>
-      <c r="B22" s="94" t="s">
+      <c r="B22" s="99" t="s">
         <v>389</v>
       </c>
-      <c r="C22" s="96"/>
+      <c r="C22" s="101"/>
       <c r="D22" s="82" t="s">
         <v>390</v>
       </c>
@@ -8854,14 +8853,14 @@
         <v>569</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="80" t="s">
         <v>606</v>
       </c>
-      <c r="B23" s="94" t="s">
+      <c r="B23" s="99" t="s">
         <v>533</v>
       </c>
-      <c r="C23" s="96"/>
+      <c r="C23" s="101"/>
       <c r="D23" s="82" t="s">
         <v>528</v>
       </c>
@@ -8895,14 +8894,14 @@
         <v>532</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="80" t="s">
         <v>606</v>
       </c>
-      <c r="B24" s="94" t="s">
+      <c r="B24" s="99" t="s">
         <v>655</v>
       </c>
-      <c r="C24" s="96"/>
+      <c r="C24" s="101"/>
       <c r="D24" s="82"/>
       <c r="E24" s="82"/>
       <c r="F24" s="87" t="s">
@@ -8934,14 +8933,14 @@
         <v>661</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="120" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="128" x14ac:dyDescent="0.35">
       <c r="A25" s="61" t="s">
         <v>606</v>
       </c>
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="99" t="s">
         <v>404</v>
       </c>
-      <c r="C25" s="96"/>
+      <c r="C25" s="101"/>
       <c r="D25" s="82" t="s">
         <v>405</v>
       </c>
@@ -8977,14 +8976,14 @@
         <v>532</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="195" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="192" x14ac:dyDescent="0.35">
       <c r="A26" s="88" t="s">
         <v>607</v>
       </c>
-      <c r="B26" s="94" t="s">
+      <c r="B26" s="99" t="s">
         <v>522</v>
       </c>
-      <c r="C26" s="96"/>
+      <c r="C26" s="101"/>
       <c r="D26" s="82"/>
       <c r="E26" s="82"/>
       <c r="F26" s="72" t="s">
@@ -9016,14 +9015,14 @@
         <v>397</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A27" s="81" t="s">
         <v>608</v>
       </c>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="99" t="s">
         <v>408</v>
       </c>
-      <c r="C27" s="96"/>
+      <c r="C27" s="101"/>
       <c r="D27" s="82" t="s">
         <v>407</v>
       </c>
@@ -9057,14 +9056,14 @@
         <v>532</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="150" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="144" x14ac:dyDescent="0.35">
       <c r="A28" s="81" t="s">
         <v>608</v>
       </c>
-      <c r="B28" s="94" t="s">
+      <c r="B28" s="99" t="s">
         <v>412</v>
       </c>
-      <c r="C28" s="96"/>
+      <c r="C28" s="101"/>
       <c r="D28" s="82" t="s">
         <v>413</v>
       </c>
@@ -9098,14 +9097,14 @@
         <v>532</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="105" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="112" x14ac:dyDescent="0.35">
       <c r="A29" s="81" t="s">
         <v>608</v>
       </c>
-      <c r="B29" s="94" t="s">
+      <c r="B29" s="99" t="s">
         <v>415</v>
       </c>
-      <c r="C29" s="96"/>
+      <c r="C29" s="101"/>
       <c r="D29" s="82" t="s">
         <v>416</v>
       </c>
@@ -9137,14 +9136,14 @@
         <v>532</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="150" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="160" x14ac:dyDescent="0.35">
       <c r="A30" s="81" t="s">
         <v>608</v>
       </c>
-      <c r="B30" s="94" t="s">
+      <c r="B30" s="99" t="s">
         <v>527</v>
       </c>
-      <c r="C30" s="96"/>
+      <c r="C30" s="101"/>
       <c r="D30" s="82" t="s">
         <v>579</v>
       </c>
@@ -9178,34 +9177,34 @@
         <v>532</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="151" t="s">
+    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="157" t="s">
         <v>643</v>
       </c>
-      <c r="B31" s="151"/>
-      <c r="C31" s="151"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
-      <c r="N31" s="151"/>
-      <c r="O31" s="151"/>
+      <c r="B31" s="157"/>
+      <c r="C31" s="157"/>
+      <c r="D31" s="157"/>
+      <c r="E31" s="157"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="157"/>
+      <c r="H31" s="157"/>
+      <c r="I31" s="157"/>
+      <c r="J31" s="157"/>
+      <c r="K31" s="157"/>
+      <c r="L31" s="157"/>
+      <c r="M31" s="157"/>
+      <c r="N31" s="157"/>
+      <c r="O31" s="157"/>
       <c r="P31" s="75"/>
     </row>
-    <row r="32" spans="1:16" ht="330" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="352" x14ac:dyDescent="0.35">
       <c r="A32" s="61" t="s">
         <v>644</v>
       </c>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="99" t="s">
         <v>422</v>
       </c>
-      <c r="C32" s="96"/>
+      <c r="C32" s="101"/>
       <c r="D32" s="82" t="s">
         <v>423</v>
       </c>
@@ -9243,14 +9242,14 @@
         <v>397</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="80" x14ac:dyDescent="0.35">
       <c r="A33" s="61" t="s">
         <v>644</v>
       </c>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="99" t="s">
         <v>427</v>
       </c>
-      <c r="C33" s="96"/>
+      <c r="C33" s="101"/>
       <c r="D33" s="82" t="s">
         <v>304</v>
       </c>
@@ -9283,14 +9282,14 @@
         <v>434</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="210" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="192" x14ac:dyDescent="0.35">
       <c r="A34" s="61" t="s">
         <v>644</v>
       </c>
-      <c r="B34" s="94" t="s">
+      <c r="B34" s="99" t="s">
         <v>436</v>
       </c>
-      <c r="C34" s="96"/>
+      <c r="C34" s="101"/>
       <c r="D34" s="82" t="s">
         <v>435</v>
       </c>
@@ -9326,14 +9325,14 @@
         <v>585</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="90" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="96" x14ac:dyDescent="0.35">
       <c r="A35" s="61" t="s">
         <v>644</v>
       </c>
-      <c r="B35" s="94" t="s">
+      <c r="B35" s="99" t="s">
         <v>442</v>
       </c>
-      <c r="C35" s="96"/>
+      <c r="C35" s="101"/>
       <c r="D35" s="82" t="s">
         <v>443</v>
       </c>
@@ -9369,14 +9368,14 @@
         <v>434</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="90" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="80" x14ac:dyDescent="0.35">
       <c r="A36" s="61" t="s">
         <v>644</v>
       </c>
-      <c r="B36" s="94" t="s">
+      <c r="B36" s="99" t="s">
         <v>445</v>
       </c>
-      <c r="C36" s="96"/>
+      <c r="C36" s="101"/>
       <c r="D36" s="82" t="s">
         <v>446</v>
       </c>
@@ -9412,14 +9411,14 @@
         <v>397</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="90" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" ht="96" x14ac:dyDescent="0.35">
       <c r="A37" s="61" t="s">
         <v>644</v>
       </c>
-      <c r="B37" s="94" t="s">
+      <c r="B37" s="99" t="s">
         <v>454</v>
       </c>
-      <c r="C37" s="96"/>
+      <c r="C37" s="101"/>
       <c r="D37" s="82" t="s">
         <v>455</v>
       </c>
@@ -9455,14 +9454,14 @@
         <v>434</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="120" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" ht="128" x14ac:dyDescent="0.35">
       <c r="A38" s="61" t="s">
         <v>644</v>
       </c>
-      <c r="B38" s="94" t="s">
+      <c r="B38" s="99" t="s">
         <v>459</v>
       </c>
-      <c r="C38" s="96"/>
+      <c r="C38" s="101"/>
       <c r="D38" s="82" t="s">
         <v>460</v>
       </c>
@@ -9498,14 +9497,14 @@
         <v>434</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="90" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" ht="80" x14ac:dyDescent="0.35">
       <c r="A39" s="61" t="s">
         <v>644</v>
       </c>
-      <c r="B39" s="153" t="s">
+      <c r="B39" s="161" t="s">
         <v>467</v>
       </c>
-      <c r="C39" s="154"/>
+      <c r="C39" s="162"/>
       <c r="D39" s="82" t="s">
         <v>463</v>
       </c>
@@ -9541,14 +9540,14 @@
         <v>397</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="90" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" ht="96" x14ac:dyDescent="0.35">
       <c r="A40" s="61" t="s">
         <v>644</v>
       </c>
-      <c r="B40" s="153" t="s">
+      <c r="B40" s="161" t="s">
         <v>473</v>
       </c>
-      <c r="C40" s="154"/>
+      <c r="C40" s="162"/>
       <c r="D40" s="82" t="s">
         <v>468</v>
       </c>
@@ -9584,14 +9583,14 @@
         <v>434</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" ht="80" x14ac:dyDescent="0.35">
       <c r="A41" s="61" t="s">
         <v>644</v>
       </c>
-      <c r="B41" s="153" t="s">
+      <c r="B41" s="161" t="s">
         <v>471</v>
       </c>
-      <c r="C41" s="154"/>
+      <c r="C41" s="162"/>
       <c r="D41" s="82" t="s">
         <v>469</v>
       </c>
@@ -9627,14 +9626,14 @@
         <v>397</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="90" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" ht="96" x14ac:dyDescent="0.35">
       <c r="A42" s="61" t="s">
         <v>644</v>
       </c>
-      <c r="B42" s="153" t="s">
+      <c r="B42" s="161" t="s">
         <v>472</v>
       </c>
-      <c r="C42" s="154"/>
+      <c r="C42" s="162"/>
       <c r="D42" s="82" t="s">
         <v>470</v>
       </c>
@@ -9670,14 +9669,14 @@
         <v>434</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="90" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" ht="80" x14ac:dyDescent="0.35">
       <c r="A43" s="61" t="s">
         <v>644</v>
       </c>
-      <c r="B43" s="153" t="s">
+      <c r="B43" s="161" t="s">
         <v>481</v>
       </c>
-      <c r="C43" s="154"/>
+      <c r="C43" s="162"/>
       <c r="D43" s="82" t="s">
         <v>482</v>
       </c>
@@ -9713,14 +9712,14 @@
         <v>397</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="120" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" ht="128" x14ac:dyDescent="0.35">
       <c r="A44" s="61" t="s">
         <v>644</v>
       </c>
-      <c r="B44" s="153" t="s">
+      <c r="B44" s="161" t="s">
         <v>489</v>
       </c>
-      <c r="C44" s="154"/>
+      <c r="C44" s="162"/>
       <c r="D44" s="82" t="s">
         <v>483</v>
       </c>
@@ -9756,14 +9755,14 @@
         <v>434</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="90" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" ht="96" x14ac:dyDescent="0.35">
       <c r="A45" s="61" t="s">
         <v>644</v>
       </c>
-      <c r="B45" s="94" t="s">
+      <c r="B45" s="99" t="s">
         <v>495</v>
       </c>
-      <c r="C45" s="96"/>
+      <c r="C45" s="101"/>
       <c r="D45" s="82" t="s">
         <v>496</v>
       </c>
@@ -9797,14 +9796,14 @@
         <v>397</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A46" s="61" t="s">
         <v>644</v>
       </c>
-      <c r="B46" s="94" t="s">
+      <c r="B46" s="99" t="s">
         <v>502</v>
       </c>
-      <c r="C46" s="96"/>
+      <c r="C46" s="101"/>
       <c r="D46" s="82" t="s">
         <v>503</v>
       </c>
@@ -9840,14 +9839,14 @@
         <v>397</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="180" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" ht="192" x14ac:dyDescent="0.35">
       <c r="A47" s="61" t="s">
         <v>644</v>
       </c>
-      <c r="B47" s="94" t="s">
+      <c r="B47" s="99" t="s">
         <v>507</v>
       </c>
-      <c r="C47" s="96"/>
+      <c r="C47" s="101"/>
       <c r="D47" s="82" t="s">
         <v>508</v>
       </c>
@@ -9883,14 +9882,14 @@
         <v>434</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="60" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" ht="64" x14ac:dyDescent="0.35">
       <c r="A48" s="61" t="s">
         <v>644</v>
       </c>
-      <c r="B48" s="94" t="s">
+      <c r="B48" s="99" t="s">
         <v>611</v>
       </c>
-      <c r="C48" s="96"/>
+      <c r="C48" s="101"/>
       <c r="D48" s="82"/>
       <c r="E48" s="82"/>
       <c r="F48" s="82"/>
@@ -9908,14 +9907,14 @@
       <c r="N48" s="72"/>
       <c r="O48" s="82"/>
     </row>
-    <row r="49" spans="1:16" s="93" customFormat="1" ht="150" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" s="93" customFormat="1" ht="144" x14ac:dyDescent="0.35">
       <c r="A49" s="84" t="s">
         <v>644</v>
       </c>
-      <c r="B49" s="155" t="s">
+      <c r="B49" s="159" t="s">
         <v>609</v>
       </c>
-      <c r="C49" s="156"/>
+      <c r="C49" s="160"/>
       <c r="D49" s="83"/>
       <c r="E49" s="83"/>
       <c r="F49" s="83"/>
@@ -9933,14 +9932,14 @@
       <c r="N49" s="83"/>
       <c r="O49" s="83"/>
     </row>
-    <row r="50" spans="1:16" ht="60" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" ht="48" x14ac:dyDescent="0.35">
       <c r="A50" s="80" t="s">
         <v>644</v>
       </c>
-      <c r="B50" s="149" t="s">
+      <c r="B50" s="163" t="s">
         <v>624</v>
       </c>
-      <c r="C50" s="150"/>
+      <c r="C50" s="164"/>
       <c r="D50" s="89"/>
       <c r="E50" s="89"/>
       <c r="F50" s="89"/>
@@ -9958,34 +9957,34 @@
       <c r="N50" s="89"/>
       <c r="O50" s="91"/>
     </row>
-    <row r="51" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="151" t="s">
+    <row r="51" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="157" t="s">
         <v>645</v>
       </c>
-      <c r="B51" s="151"/>
-      <c r="C51" s="151"/>
-      <c r="D51" s="151"/>
-      <c r="E51" s="151"/>
-      <c r="F51" s="151"/>
-      <c r="G51" s="151"/>
-      <c r="H51" s="151"/>
-      <c r="I51" s="151"/>
-      <c r="J51" s="151"/>
-      <c r="K51" s="151"/>
-      <c r="L51" s="151"/>
-      <c r="M51" s="151"/>
-      <c r="N51" s="151"/>
-      <c r="O51" s="152"/>
+      <c r="B51" s="157"/>
+      <c r="C51" s="157"/>
+      <c r="D51" s="157"/>
+      <c r="E51" s="157"/>
+      <c r="F51" s="157"/>
+      <c r="G51" s="157"/>
+      <c r="H51" s="157"/>
+      <c r="I51" s="157"/>
+      <c r="J51" s="157"/>
+      <c r="K51" s="157"/>
+      <c r="L51" s="157"/>
+      <c r="M51" s="157"/>
+      <c r="N51" s="157"/>
+      <c r="O51" s="165"/>
       <c r="P51" s="75"/>
     </row>
-    <row r="52" spans="1:16" ht="45" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" ht="48" x14ac:dyDescent="0.35">
       <c r="A52" s="61" t="s">
         <v>615</v>
       </c>
-      <c r="B52" s="94" t="s">
+      <c r="B52" s="99" t="s">
         <v>616</v>
       </c>
-      <c r="C52" s="96"/>
+      <c r="C52" s="101"/>
       <c r="D52" s="82">
         <v>1</v>
       </c>
@@ -10019,14 +10018,14 @@
         <v>397</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="90" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" ht="96" x14ac:dyDescent="0.35">
       <c r="A53" s="61" t="s">
         <v>615</v>
       </c>
-      <c r="B53" s="94" t="s">
+      <c r="B53" s="99" t="s">
         <v>617</v>
       </c>
-      <c r="C53" s="96"/>
+      <c r="C53" s="101"/>
       <c r="D53" s="82">
         <v>2</v>
       </c>
@@ -10060,14 +10059,14 @@
         <v>397</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" ht="32" x14ac:dyDescent="0.35">
       <c r="A54" s="61" t="s">
         <v>615</v>
       </c>
-      <c r="B54" s="94" t="s">
+      <c r="B54" s="99" t="s">
         <v>618</v>
       </c>
-      <c r="C54" s="96"/>
+      <c r="C54" s="101"/>
       <c r="D54" s="82" t="s">
         <v>633</v>
       </c>
@@ -10101,14 +10100,14 @@
         <v>397</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="90" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" ht="96" x14ac:dyDescent="0.35">
       <c r="A55" s="61" t="s">
         <v>615</v>
       </c>
-      <c r="B55" s="94" t="s">
+      <c r="B55" s="99" t="s">
         <v>619</v>
       </c>
-      <c r="C55" s="96"/>
+      <c r="C55" s="101"/>
       <c r="D55" s="82">
         <v>3</v>
       </c>
@@ -10142,14 +10141,14 @@
         <v>397</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="32" x14ac:dyDescent="0.35">
       <c r="A56" s="61" t="s">
         <v>615</v>
       </c>
-      <c r="B56" s="94" t="s">
+      <c r="B56" s="99" t="s">
         <v>620</v>
       </c>
-      <c r="C56" s="96"/>
+      <c r="C56" s="101"/>
       <c r="D56" s="82">
         <v>4</v>
       </c>
@@ -10179,14 +10178,14 @@
         <v>397</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="30" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" ht="32" x14ac:dyDescent="0.35">
       <c r="A57" s="61" t="s">
         <v>615</v>
       </c>
-      <c r="B57" s="94" t="s">
+      <c r="B57" s="99" t="s">
         <v>621</v>
       </c>
-      <c r="C57" s="96"/>
+      <c r="C57" s="101"/>
       <c r="D57" s="82">
         <v>5</v>
       </c>
@@ -10216,14 +10215,14 @@
         <v>397</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="60" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" ht="64" x14ac:dyDescent="0.35">
       <c r="A58" s="61" t="s">
         <v>615</v>
       </c>
-      <c r="B58" s="94" t="s">
+      <c r="B58" s="99" t="s">
         <v>624</v>
       </c>
-      <c r="C58" s="96"/>
+      <c r="C58" s="101"/>
       <c r="D58" s="82"/>
       <c r="E58" s="82"/>
       <c r="F58" s="82"/>
@@ -10241,10 +10240,10 @@
       <c r="N58" s="82"/>
       <c r="O58" s="82"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" ht="16" x14ac:dyDescent="0.35">
       <c r="A59" s="82"/>
-      <c r="B59" s="94"/>
-      <c r="C59" s="96"/>
+      <c r="B59" s="99"/>
+      <c r="C59" s="101"/>
       <c r="D59" s="82"/>
       <c r="E59" s="82"/>
       <c r="F59" s="82"/>
@@ -10258,10 +10257,10 @@
       <c r="N59" s="82"/>
       <c r="O59" s="82"/>
     </row>
-    <row r="60" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="82"/>
-      <c r="B60" s="94"/>
-      <c r="C60" s="96"/>
+      <c r="B60" s="99"/>
+      <c r="C60" s="101"/>
       <c r="D60" s="82"/>
       <c r="E60" s="82"/>
       <c r="F60" s="82"/>
@@ -10275,10 +10274,10 @@
       <c r="N60" s="82"/>
       <c r="O60" s="82"/>
     </row>
-    <row r="61" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="82"/>
-      <c r="B61" s="94"/>
-      <c r="C61" s="96"/>
+      <c r="B61" s="99"/>
+      <c r="C61" s="101"/>
       <c r="D61" s="82"/>
       <c r="E61" s="82"/>
       <c r="F61" s="82"/>
@@ -10292,10 +10291,10 @@
       <c r="N61" s="82"/>
       <c r="O61" s="82"/>
     </row>
-    <row r="62" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="82"/>
-      <c r="B62" s="94"/>
-      <c r="C62" s="96"/>
+      <c r="B62" s="99"/>
+      <c r="C62" s="101"/>
       <c r="D62" s="82"/>
       <c r="E62" s="82"/>
       <c r="F62" s="82"/>
@@ -10309,10 +10308,10 @@
       <c r="N62" s="82"/>
       <c r="O62" s="82"/>
     </row>
-    <row r="63" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="82"/>
-      <c r="B63" s="94"/>
-      <c r="C63" s="96"/>
+      <c r="B63" s="99"/>
+      <c r="C63" s="101"/>
       <c r="D63" s="82"/>
       <c r="E63" s="82"/>
       <c r="F63" s="82"/>
@@ -10326,10 +10325,10 @@
       <c r="N63" s="82"/>
       <c r="O63" s="82"/>
     </row>
-    <row r="64" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="82"/>
-      <c r="B64" s="94"/>
-      <c r="C64" s="96"/>
+      <c r="B64" s="99"/>
+      <c r="C64" s="101"/>
       <c r="D64" s="82"/>
       <c r="E64" s="82"/>
       <c r="F64" s="82"/>
@@ -10343,10 +10342,10 @@
       <c r="N64" s="82"/>
       <c r="O64" s="82"/>
     </row>
-    <row r="65" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="82"/>
-      <c r="B65" s="94"/>
-      <c r="C65" s="96"/>
+      <c r="B65" s="99"/>
+      <c r="C65" s="101"/>
       <c r="D65" s="82"/>
       <c r="E65" s="82"/>
       <c r="F65" s="82"/>
@@ -10360,10 +10359,10 @@
       <c r="N65" s="82"/>
       <c r="O65" s="82"/>
     </row>
-    <row r="66" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="82"/>
-      <c r="B66" s="94"/>
-      <c r="C66" s="96"/>
+      <c r="B66" s="99"/>
+      <c r="C66" s="101"/>
       <c r="D66" s="82"/>
       <c r="E66" s="82"/>
       <c r="F66" s="82"/>
@@ -10377,10 +10376,10 @@
       <c r="N66" s="82"/>
       <c r="O66" s="82"/>
     </row>
-    <row r="67" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="82"/>
-      <c r="B67" s="94"/>
-      <c r="C67" s="96"/>
+      <c r="B67" s="99"/>
+      <c r="C67" s="101"/>
       <c r="D67" s="82"/>
       <c r="E67" s="82"/>
       <c r="F67" s="82"/>
@@ -10394,10 +10393,10 @@
       <c r="N67" s="82"/>
       <c r="O67" s="82"/>
     </row>
-    <row r="68" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="82"/>
-      <c r="B68" s="94"/>
-      <c r="C68" s="96"/>
+      <c r="B68" s="99"/>
+      <c r="C68" s="101"/>
       <c r="D68" s="82"/>
       <c r="E68" s="82"/>
       <c r="F68" s="82"/>
@@ -10411,10 +10410,10 @@
       <c r="N68" s="82"/>
       <c r="O68" s="82"/>
     </row>
-    <row r="69" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="82"/>
-      <c r="B69" s="94"/>
-      <c r="C69" s="96"/>
+      <c r="B69" s="99"/>
+      <c r="C69" s="101"/>
       <c r="D69" s="82"/>
       <c r="E69" s="82"/>
       <c r="F69" s="82"/>
@@ -10428,10 +10427,10 @@
       <c r="N69" s="82"/>
       <c r="O69" s="82"/>
     </row>
-    <row r="70" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="82"/>
-      <c r="B70" s="94"/>
-      <c r="C70" s="96"/>
+      <c r="B70" s="99"/>
+      <c r="C70" s="101"/>
       <c r="D70" s="82"/>
       <c r="E70" s="82"/>
       <c r="F70" s="82"/>
@@ -10445,10 +10444,10 @@
       <c r="N70" s="82"/>
       <c r="O70" s="82"/>
     </row>
-    <row r="71" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="82"/>
-      <c r="B71" s="94"/>
-      <c r="C71" s="96"/>
+      <c r="B71" s="99"/>
+      <c r="C71" s="101"/>
       <c r="D71" s="82"/>
       <c r="E71" s="82"/>
       <c r="F71" s="82"/>
@@ -10462,10 +10461,10 @@
       <c r="N71" s="82"/>
       <c r="O71" s="82"/>
     </row>
-    <row r="72" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="82"/>
-      <c r="B72" s="94"/>
-      <c r="C72" s="96"/>
+      <c r="B72" s="99"/>
+      <c r="C72" s="101"/>
       <c r="D72" s="82"/>
       <c r="E72" s="82"/>
       <c r="F72" s="82"/>
@@ -10479,10 +10478,10 @@
       <c r="N72" s="82"/>
       <c r="O72" s="82"/>
     </row>
-    <row r="73" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="82"/>
-      <c r="B73" s="94"/>
-      <c r="C73" s="96"/>
+      <c r="B73" s="99"/>
+      <c r="C73" s="101"/>
       <c r="D73" s="82"/>
       <c r="E73" s="82"/>
       <c r="F73" s="82"/>
@@ -10497,7 +10496,7 @@
       <c r="O73" s="82"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P73" xr:uid="{00000000-0009-0000-0000-000003000000}">
+  <autoFilter ref="A1:P73">
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="3" showButton="0"/>
@@ -10512,6 +10511,66 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="72">
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="A51:O51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A31:O31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:N2"/>
@@ -10524,66 +10583,6 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A31:O31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="A51:O51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -10593,7 +10592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:L6"/>
   <sheetViews>
@@ -10601,17 +10600,17 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="6" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="33.6328125" customWidth="1"/>
+    <col min="3" max="6" width="11.453125" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.6328125" customWidth="1"/>
+    <col min="9" max="9" width="22.36328125" customWidth="1"/>
+    <col min="10" max="10" width="17.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="39" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="39" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>64</v>
       </c>
@@ -10647,7 +10646,7 @@
       </c>
       <c r="L1" s="38"/>
     </row>
-    <row r="2" spans="1:12" ht="144" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="132" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>83</v>
@@ -10669,7 +10668,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>86</v>
@@ -10685,7 +10684,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -10699,7 +10698,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -10713,7 +10712,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="31"/>
       <c r="B6" s="32"/>
       <c r="C6" s="7"/>
@@ -10733,7 +10732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:O145"/>
   <sheetViews>
@@ -10744,18 +10743,18 @@
       <selection pane="bottomRight" sqref="A1:N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="45" customWidth="1"/>
-    <col min="3" max="5" width="12.33203125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" style="16" customWidth="1"/>
-    <col min="7" max="9" width="7.6640625" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" customWidth="1"/>
+    <col min="3" max="5" width="12.36328125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="7.6328125" style="16" customWidth="1"/>
+    <col min="7" max="9" width="7.6328125" customWidth="1"/>
+    <col min="11" max="11" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" customWidth="1"/>
     <col min="14" max="14" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C1" s="167"/>
       <c r="D1" s="167"/>
       <c r="E1" s="167"/>
@@ -10773,7 +10772,7 @@
       <c r="M1" s="166"/>
       <c r="N1" s="166"/>
     </row>
-    <row r="2" spans="1:15" s="14" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="14" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>89</v>
@@ -10816,7 +10815,7 @@
       </c>
       <c r="O2" s="15"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
         <v>101</v>
       </c>
@@ -10834,7 +10833,7 @@
       <c r="M3" s="22"/>
       <c r="N3" s="22"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>102</v>
       </c>
@@ -10860,7 +10859,7 @@
       <c r="M4" s="22"/>
       <c r="N4" s="22"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>102</v>
       </c>
@@ -10886,7 +10885,7 @@
       <c r="M5" s="22"/>
       <c r="N5" s="22"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>102</v>
       </c>
@@ -10912,7 +10911,7 @@
       <c r="M6" s="22"/>
       <c r="N6" s="22"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>102</v>
       </c>
@@ -10938,7 +10937,7 @@
       <c r="M7" s="22"/>
       <c r="N7" s="22"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>102</v>
       </c>
@@ -10964,7 +10963,7 @@
       <c r="M8" s="22"/>
       <c r="N8" s="22"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>102</v>
       </c>
@@ -10990,7 +10989,7 @@
       <c r="M9" s="22"/>
       <c r="N9" s="22"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>102</v>
       </c>
@@ -11016,7 +11015,7 @@
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>102</v>
       </c>
@@ -11042,7 +11041,7 @@
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>102</v>
       </c>
@@ -11068,7 +11067,7 @@
       <c r="M12" s="22"/>
       <c r="N12" s="22"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>102</v>
       </c>
@@ -11094,7 +11093,7 @@
       <c r="M13" s="22"/>
       <c r="N13" s="22"/>
     </row>
-    <row r="14" spans="1:15" ht="24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="24" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>102</v>
       </c>
@@ -11120,7 +11119,7 @@
       <c r="M14" s="22"/>
       <c r="N14" s="22"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
         <v>115</v>
       </c>
@@ -11138,7 +11137,7 @@
       <c r="M15" s="22"/>
       <c r="N15" s="22"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>116</v>
       </c>
@@ -11164,7 +11163,7 @@
       <c r="M16" s="22"/>
       <c r="N16" s="22"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>116</v>
       </c>
@@ -11190,7 +11189,7 @@
       <c r="M17" s="22"/>
       <c r="N17" s="22"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>116</v>
       </c>
@@ -11212,7 +11211,7 @@
       <c r="M18" s="22"/>
       <c r="N18" s="22"/>
     </row>
-    <row r="19" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>116</v>
       </c>
@@ -11238,7 +11237,7 @@
       <c r="M19" s="22"/>
       <c r="N19" s="22"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>116</v>
       </c>
@@ -11264,7 +11263,7 @@
       <c r="M20" s="22"/>
       <c r="N20" s="22"/>
     </row>
-    <row r="21" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>116</v>
       </c>
@@ -11290,7 +11289,7 @@
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>116</v>
       </c>
@@ -11316,7 +11315,7 @@
       <c r="M22" s="22"/>
       <c r="N22" s="22"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>116</v>
       </c>
@@ -11342,7 +11341,7 @@
       <c r="M23" s="22"/>
       <c r="N23" s="22"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>116</v>
       </c>
@@ -11368,7 +11367,7 @@
       <c r="M24" s="22"/>
       <c r="N24" s="22"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>116</v>
       </c>
@@ -11394,7 +11393,7 @@
       <c r="M25" s="22"/>
       <c r="N25" s="22"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>116</v>
       </c>
@@ -11420,7 +11419,7 @@
       <c r="M26" s="22"/>
       <c r="N26" s="22"/>
     </row>
-    <row r="27" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>116</v>
       </c>
@@ -11446,7 +11445,7 @@
       <c r="M27" s="22"/>
       <c r="N27" s="22"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>116</v>
       </c>
@@ -11472,7 +11471,7 @@
       <c r="M28" s="22"/>
       <c r="N28" s="22"/>
     </row>
-    <row r="29" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>116</v>
       </c>
@@ -11498,7 +11497,7 @@
       <c r="M29" s="22"/>
       <c r="N29" s="22"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>116</v>
       </c>
@@ -11520,7 +11519,7 @@
       <c r="M30" s="22"/>
       <c r="N30" s="22"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>116</v>
       </c>
@@ -11546,7 +11545,7 @@
       <c r="M31" s="22"/>
       <c r="N31" s="22"/>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>116</v>
       </c>
@@ -11570,7 +11569,7 @@
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
     </row>
-    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>116</v>
       </c>
@@ -11592,7 +11591,7 @@
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
     </row>
-    <row r="34" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>116</v>
       </c>
@@ -11614,7 +11613,7 @@
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>116</v>
       </c>
@@ -11640,7 +11639,7 @@
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>116</v>
       </c>
@@ -11666,7 +11665,7 @@
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>116</v>
       </c>
@@ -11688,7 +11687,7 @@
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
     </row>
-    <row r="38" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>116</v>
       </c>
@@ -11710,7 +11709,7 @@
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>116</v>
       </c>
@@ -11734,7 +11733,7 @@
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="19" t="s">
         <v>142</v>
       </c>
@@ -11752,7 +11751,7 @@
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
     </row>
-    <row r="41" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>143</v>
       </c>
@@ -11778,7 +11777,7 @@
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>143</v>
       </c>
@@ -11800,7 +11799,7 @@
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>143</v>
       </c>
@@ -11822,7 +11821,7 @@
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
     </row>
-    <row r="44" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" ht="36" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>143</v>
       </c>
@@ -11844,7 +11843,7 @@
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
     </row>
-    <row r="45" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>143</v>
       </c>
@@ -11866,7 +11865,7 @@
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
     </row>
-    <row r="46" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>143</v>
       </c>
@@ -11888,7 +11887,7 @@
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>143</v>
       </c>
@@ -11910,7 +11909,7 @@
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>143</v>
       </c>
@@ -11932,7 +11931,7 @@
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
     </row>
-    <row r="49" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" ht="36" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>143</v>
       </c>
@@ -11954,7 +11953,7 @@
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
     </row>
-    <row r="50" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>143</v>
       </c>
@@ -11978,7 +11977,7 @@
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
     </row>
-    <row r="51" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" ht="36" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>143</v>
       </c>
@@ -12000,7 +11999,7 @@
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>143</v>
       </c>
@@ -12024,7 +12023,7 @@
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>143</v>
       </c>
@@ -12048,7 +12047,7 @@
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>143</v>
       </c>
@@ -12072,7 +12071,7 @@
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>143</v>
       </c>
@@ -12096,7 +12095,7 @@
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>143</v>
       </c>
@@ -12122,7 +12121,7 @@
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="19" t="s">
         <v>160</v>
       </c>
@@ -12140,7 +12139,7 @@
       <c r="M57" s="22"/>
       <c r="N57" s="22"/>
     </row>
-    <row r="58" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>161</v>
       </c>
@@ -12166,7 +12165,7 @@
       <c r="M58" s="22"/>
       <c r="N58" s="22"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>161</v>
       </c>
@@ -12192,7 +12191,7 @@
       <c r="M59" s="22"/>
       <c r="N59" s="22"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>161</v>
       </c>
@@ -12218,7 +12217,7 @@
       <c r="M60" s="22"/>
       <c r="N60" s="22"/>
     </row>
-    <row r="61" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>161</v>
       </c>
@@ -12244,7 +12243,7 @@
       <c r="M61" s="22"/>
       <c r="N61" s="22"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>161</v>
       </c>
@@ -12270,7 +12269,7 @@
       <c r="M62" s="22"/>
       <c r="N62" s="22"/>
     </row>
-    <row r="63" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>161</v>
       </c>
@@ -12296,7 +12295,7 @@
       <c r="M63" s="22"/>
       <c r="N63" s="22"/>
     </row>
-    <row r="64" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>161</v>
       </c>
@@ -12322,7 +12321,7 @@
       <c r="M64" s="22"/>
       <c r="N64" s="22"/>
     </row>
-    <row r="65" spans="1:14" ht="60" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" ht="60" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>161</v>
       </c>
@@ -12348,7 +12347,7 @@
       <c r="M65" s="22"/>
       <c r="N65" s="22"/>
     </row>
-    <row r="66" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>161</v>
       </c>
@@ -12374,7 +12373,7 @@
       <c r="M66" s="22"/>
       <c r="N66" s="22"/>
     </row>
-    <row r="67" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>161</v>
       </c>
@@ -12400,7 +12399,7 @@
       <c r="M67" s="22"/>
       <c r="N67" s="22"/>
     </row>
-    <row r="68" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>161</v>
       </c>
@@ -12426,7 +12425,7 @@
       <c r="M68" s="22"/>
       <c r="N68" s="22"/>
     </row>
-    <row r="69" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>161</v>
       </c>
@@ -12452,7 +12451,7 @@
       <c r="M69" s="22"/>
       <c r="N69" s="22"/>
     </row>
-    <row r="70" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>161</v>
       </c>
@@ -12478,7 +12477,7 @@
       <c r="M70" s="22"/>
       <c r="N70" s="22"/>
     </row>
-    <row r="71" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" ht="60" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>161</v>
       </c>
@@ -12504,7 +12503,7 @@
       <c r="M71" s="22"/>
       <c r="N71" s="22"/>
     </row>
-    <row r="72" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>161</v>
       </c>
@@ -12530,7 +12529,7 @@
       <c r="M72" s="22"/>
       <c r="N72" s="22"/>
     </row>
-    <row r="73" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" ht="36" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>161</v>
       </c>
@@ -12556,7 +12555,7 @@
       <c r="M73" s="22"/>
       <c r="N73" s="22"/>
     </row>
-    <row r="74" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>161</v>
       </c>
@@ -12582,7 +12581,7 @@
       <c r="M74" s="22"/>
       <c r="N74" s="22"/>
     </row>
-    <row r="75" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>161</v>
       </c>
@@ -12608,7 +12607,7 @@
       <c r="M75" s="22"/>
       <c r="N75" s="22"/>
     </row>
-    <row r="76" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>161</v>
       </c>
@@ -12634,7 +12633,7 @@
       <c r="M76" s="22"/>
       <c r="N76" s="22"/>
     </row>
-    <row r="77" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" ht="60" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>161</v>
       </c>
@@ -12660,7 +12659,7 @@
       <c r="M77" s="22"/>
       <c r="N77" s="22"/>
     </row>
-    <row r="78" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" ht="36" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>161</v>
       </c>
@@ -12686,7 +12685,7 @@
       <c r="M78" s="22"/>
       <c r="N78" s="22"/>
     </row>
-    <row r="79" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" ht="36" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>161</v>
       </c>
@@ -12712,7 +12711,7 @@
       <c r="M79" s="22"/>
       <c r="N79" s="22"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>161</v>
       </c>
@@ -12738,7 +12737,7 @@
       <c r="M80" s="22"/>
       <c r="N80" s="22"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>161</v>
       </c>
@@ -12764,7 +12763,7 @@
       <c r="M81" s="22"/>
       <c r="N81" s="22"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>161</v>
       </c>
@@ -12790,7 +12789,7 @@
       <c r="M82" s="22"/>
       <c r="N82" s="22"/>
     </row>
-    <row r="83" spans="1:14" ht="60" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" ht="60" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>161</v>
       </c>
@@ -12816,7 +12815,7 @@
       <c r="M83" s="22"/>
       <c r="N83" s="22"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>161</v>
       </c>
@@ -12842,7 +12841,7 @@
       <c r="M84" s="22"/>
       <c r="N84" s="22"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>161</v>
       </c>
@@ -12868,7 +12867,7 @@
       <c r="M85" s="22"/>
       <c r="N85" s="22"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>161</v>
       </c>
@@ -12894,7 +12893,7 @@
       <c r="M86" s="22"/>
       <c r="N86" s="22"/>
     </row>
-    <row r="87" spans="1:14" ht="48" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" ht="48" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>161</v>
       </c>
@@ -12920,7 +12919,7 @@
       <c r="M87" s="22"/>
       <c r="N87" s="22"/>
     </row>
-    <row r="88" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>161</v>
       </c>
@@ -12946,7 +12945,7 @@
       <c r="M88" s="22"/>
       <c r="N88" s="22"/>
     </row>
-    <row r="89" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>161</v>
       </c>
@@ -12972,7 +12971,7 @@
       <c r="M89" s="22"/>
       <c r="N89" s="22"/>
     </row>
-    <row r="90" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" ht="36" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>161</v>
       </c>
@@ -12998,7 +12997,7 @@
       <c r="M90" s="22"/>
       <c r="N90" s="22"/>
     </row>
-    <row r="91" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>161</v>
       </c>
@@ -13024,7 +13023,7 @@
       <c r="M91" s="22"/>
       <c r="N91" s="22"/>
     </row>
-    <row r="92" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>161</v>
       </c>
@@ -13050,7 +13049,7 @@
       <c r="M92" s="22"/>
       <c r="N92" s="22"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" s="19" t="s">
         <v>197</v>
       </c>
@@ -13068,7 +13067,7 @@
       <c r="M93" s="22"/>
       <c r="N93" s="22"/>
     </row>
-    <row r="94" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>198</v>
       </c>
@@ -13090,7 +13089,7 @@
       <c r="M94" s="22"/>
       <c r="N94" s="22"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>198</v>
       </c>
@@ -13112,7 +13111,7 @@
       <c r="M95" s="22"/>
       <c r="N95" s="22"/>
     </row>
-    <row r="96" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>198</v>
       </c>
@@ -13134,7 +13133,7 @@
       <c r="M96" s="22"/>
       <c r="N96" s="22"/>
     </row>
-    <row r="97" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>198</v>
       </c>
@@ -13156,7 +13155,7 @@
       <c r="M97" s="22"/>
       <c r="N97" s="22"/>
     </row>
-    <row r="98" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>198</v>
       </c>
@@ -13178,7 +13177,7 @@
       <c r="M98" s="22"/>
       <c r="N98" s="22"/>
     </row>
-    <row r="99" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>198</v>
       </c>
@@ -13200,7 +13199,7 @@
       <c r="M99" s="22"/>
       <c r="N99" s="22"/>
     </row>
-    <row r="100" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>198</v>
       </c>
@@ -13222,7 +13221,7 @@
       <c r="M100" s="22"/>
       <c r="N100" s="22"/>
     </row>
-    <row r="101" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>198</v>
       </c>
@@ -13244,7 +13243,7 @@
       <c r="M101" s="22"/>
       <c r="N101" s="22"/>
     </row>
-    <row r="102" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" ht="36" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>198</v>
       </c>
@@ -13266,7 +13265,7 @@
       <c r="M102" s="22"/>
       <c r="N102" s="22"/>
     </row>
-    <row r="103" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>198</v>
       </c>
@@ -13288,7 +13287,7 @@
       <c r="M103" s="22"/>
       <c r="N103" s="22"/>
     </row>
-    <row r="104" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>198</v>
       </c>
@@ -13310,7 +13309,7 @@
       <c r="M104" s="22"/>
       <c r="N104" s="22"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>198</v>
       </c>
@@ -13332,7 +13331,7 @@
       <c r="M105" s="22"/>
       <c r="N105" s="22"/>
     </row>
-    <row r="106" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>198</v>
       </c>
@@ -13354,7 +13353,7 @@
       <c r="M106" s="22"/>
       <c r="N106" s="22"/>
     </row>
-    <row r="107" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>198</v>
       </c>
@@ -13376,7 +13375,7 @@
       <c r="M107" s="22"/>
       <c r="N107" s="22"/>
     </row>
-    <row r="108" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>198</v>
       </c>
@@ -13398,7 +13397,7 @@
       <c r="M108" s="22"/>
       <c r="N108" s="22"/>
     </row>
-    <row r="109" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" ht="36" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>198</v>
       </c>
@@ -13420,7 +13419,7 @@
       <c r="M109" s="22"/>
       <c r="N109" s="22"/>
     </row>
-    <row r="110" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>198</v>
       </c>
@@ -13442,7 +13441,7 @@
       <c r="M110" s="22"/>
       <c r="N110" s="22"/>
     </row>
-    <row r="111" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>198</v>
       </c>
@@ -13466,7 +13465,7 @@
       <c r="M111" s="22"/>
       <c r="N111" s="22"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>198</v>
       </c>
@@ -13490,7 +13489,7 @@
       <c r="M112" s="22"/>
       <c r="N112" s="22"/>
     </row>
-    <row r="113" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>198</v>
       </c>
@@ -13514,7 +13513,7 @@
       <c r="M113" s="22"/>
       <c r="N113" s="22"/>
     </row>
-    <row r="114" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>198</v>
       </c>
@@ -13538,7 +13537,7 @@
       <c r="M114" s="22"/>
       <c r="N114" s="22"/>
     </row>
-    <row r="115" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>198</v>
       </c>
@@ -13562,7 +13561,7 @@
       <c r="M115" s="22"/>
       <c r="N115" s="22"/>
     </row>
-    <row r="116" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>198</v>
       </c>
@@ -13586,7 +13585,7 @@
       <c r="M116" s="22"/>
       <c r="N116" s="22"/>
     </row>
-    <row r="117" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
         <v>198</v>
       </c>
@@ -13610,7 +13609,7 @@
       <c r="M117" s="22"/>
       <c r="N117" s="22"/>
     </row>
-    <row r="118" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>198</v>
       </c>
@@ -13634,7 +13633,7 @@
       <c r="M118" s="22"/>
       <c r="N118" s="22"/>
     </row>
-    <row r="119" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" ht="36" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>198</v>
       </c>
@@ -13658,7 +13657,7 @@
       <c r="M119" s="22"/>
       <c r="N119" s="22"/>
     </row>
-    <row r="120" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" ht="36" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>198</v>
       </c>
@@ -13682,7 +13681,7 @@
       <c r="M120" s="22"/>
       <c r="N120" s="22"/>
     </row>
-    <row r="121" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>198</v>
       </c>
@@ -13706,7 +13705,7 @@
       <c r="M121" s="22"/>
       <c r="N121" s="22"/>
     </row>
-    <row r="122" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>198</v>
       </c>
@@ -13730,7 +13729,7 @@
       <c r="M122" s="22"/>
       <c r="N122" s="22"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A123" s="19" t="s">
         <v>227</v>
       </c>
@@ -13748,7 +13747,7 @@
       <c r="M123" s="22"/>
       <c r="N123" s="22"/>
     </row>
-    <row r="124" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" ht="36" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
         <v>228</v>
       </c>
@@ -13774,7 +13773,7 @@
       <c r="M124" s="22"/>
       <c r="N124" s="22"/>
     </row>
-    <row r="125" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" ht="36" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>228</v>
       </c>
@@ -13800,7 +13799,7 @@
       <c r="M125" s="22"/>
       <c r="N125" s="22"/>
     </row>
-    <row r="126" spans="1:14" ht="48" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" ht="48" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>228</v>
       </c>
@@ -13826,7 +13825,7 @@
       <c r="M126" s="22"/>
       <c r="N126" s="22"/>
     </row>
-    <row r="127" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" ht="36" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
         <v>228</v>
       </c>
@@ -13852,7 +13851,7 @@
       <c r="M127" s="22"/>
       <c r="N127" s="22"/>
     </row>
-    <row r="128" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" ht="36" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
         <v>228</v>
       </c>
@@ -13878,7 +13877,7 @@
       <c r="M128" s="22"/>
       <c r="N128" s="22"/>
     </row>
-    <row r="129" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" ht="36" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
         <v>228</v>
       </c>
@@ -13904,7 +13903,7 @@
       <c r="M129" s="22"/>
       <c r="N129" s="22"/>
     </row>
-    <row r="130" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" ht="36" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
         <v>228</v>
       </c>
@@ -13930,7 +13929,7 @@
       <c r="M130" s="22"/>
       <c r="N130" s="22"/>
     </row>
-    <row r="131" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" ht="36" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
         <v>228</v>
       </c>
@@ -13956,7 +13955,7 @@
       <c r="M131" s="22"/>
       <c r="N131" s="22"/>
     </row>
-    <row r="132" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" ht="36" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
         <v>228</v>
       </c>
@@ -13982,7 +13981,7 @@
       <c r="M132" s="22"/>
       <c r="N132" s="22"/>
     </row>
-    <row r="133" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
         <v>228</v>
       </c>
@@ -14008,7 +14007,7 @@
       <c r="M133" s="22"/>
       <c r="N133" s="22"/>
     </row>
-    <row r="134" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" ht="36" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
         <v>228</v>
       </c>
@@ -14034,7 +14033,7 @@
       <c r="M134" s="22"/>
       <c r="N134" s="22"/>
     </row>
-    <row r="135" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" ht="36" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
         <v>228</v>
       </c>
@@ -14060,7 +14059,7 @@
       <c r="M135" s="22"/>
       <c r="N135" s="22"/>
     </row>
-    <row r="136" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" ht="36" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
         <v>228</v>
       </c>
@@ -14086,7 +14085,7 @@
       <c r="M136" s="22"/>
       <c r="N136" s="22"/>
     </row>
-    <row r="137" spans="1:14" ht="48" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" ht="48" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
         <v>228</v>
       </c>
@@ -14112,7 +14111,7 @@
       <c r="M137" s="22"/>
       <c r="N137" s="22"/>
     </row>
-    <row r="138" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
         <v>228</v>
       </c>
@@ -14138,7 +14137,7 @@
       <c r="M138" s="22"/>
       <c r="N138" s="22"/>
     </row>
-    <row r="139" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
         <v>228</v>
       </c>
@@ -14164,7 +14163,7 @@
       <c r="M139" s="22"/>
       <c r="N139" s="22"/>
     </row>
-    <row r="140" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
         <v>228</v>
       </c>
@@ -14190,7 +14189,7 @@
       <c r="M140" s="22"/>
       <c r="N140" s="22"/>
     </row>
-    <row r="141" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
         <v>228</v>
       </c>
@@ -14216,7 +14215,7 @@
       <c r="M141" s="22"/>
       <c r="N141" s="22"/>
     </row>
-    <row r="142" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
         <v>228</v>
       </c>
@@ -14242,7 +14241,7 @@
       <c r="M142" s="22"/>
       <c r="N142" s="22"/>
     </row>
-    <row r="143" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
         <v>228</v>
       </c>
@@ -14268,7 +14267,7 @@
       <c r="M143" s="22"/>
       <c r="N143" s="22"/>
     </row>
-    <row r="144" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" ht="24" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
         <v>228</v>
       </c>
@@ -14294,7 +14293,7 @@
       <c r="M144" s="22"/>
       <c r="N144" s="22"/>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
         <v>228</v>
       </c>
@@ -14331,7 +14330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:M13"/>
   <sheetViews>
@@ -14339,23 +14338,23 @@
       <selection sqref="A1:N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="43.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.6328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="22"/>
       <c r="B1" s="168" t="s">
         <v>247</v>
@@ -14376,7 +14375,7 @@
       <c r="L1" s="166"/>
       <c r="M1" s="166"/>
     </row>
-    <row r="2" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>249</v>
       </c>
@@ -14417,7 +14416,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
@@ -14432,7 +14431,7 @@
       <c r="L3" s="20"/>
       <c r="M3" s="20"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>250</v>
       </c>
@@ -14463,7 +14462,7 @@
       <c r="L4" s="22"/>
       <c r="M4" s="22"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>251</v>
       </c>
@@ -14494,7 +14493,7 @@
       <c r="L5" s="22"/>
       <c r="M5" s="22"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>252</v>
       </c>
@@ -14533,7 +14532,7 @@
       </c>
       <c r="M6" s="22"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>253</v>
       </c>
@@ -14566,7 +14565,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>254</v>
       </c>
@@ -14605,7 +14604,7 @@
       </c>
       <c r="M8" s="22"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>255</v>
       </c>
@@ -14644,7 +14643,7 @@
       </c>
       <c r="M9" s="22"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>256</v>
       </c>
@@ -14683,7 +14682,7 @@
       </c>
       <c r="M10" s="22"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>257</v>
       </c>
@@ -14722,7 +14721,7 @@
       </c>
       <c r="M11" s="22"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
@@ -14737,7 +14736,7 @@
       <c r="L12" s="22"/>
       <c r="M12" s="22"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="20"/>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
@@ -14763,21 +14762,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B9539726064EB647A486ECAE6A8D513E" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aa9d00565841b7531e93953212f8705c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cd6f8ff5-cd79-4d23-bab8-c57789527dcf" xmlns:ns3="a3065947-0070-40a4-af96-7ed7bf5d4c14" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="aaf89d3705b2f6bb377037d19ddc3bee" ns2:_="" ns3:_="">
     <xsd:import namespace="cd6f8ff5-cd79-4d23-bab8-c57789527dcf"/>
@@ -14982,32 +14966,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31FAAA58-AFCA-4268-AEC1-83ECDDB73B54}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="a3065947-0070-40a4-af96-7ed7bf5d4c14"/>
-    <ds:schemaRef ds:uri="cd6f8ff5-cd79-4d23-bab8-c57789527dcf"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BA5AFEC-4C52-4B71-95A6-1FE1FA4F56A5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B050282D-CF12-448A-8306-1D4D671BAC7D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15024,4 +14998,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BA5AFEC-4C52-4B71-95A6-1FE1FA4F56A5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31FAAA58-AFCA-4268-AEC1-83ECDDB73B54}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="a3065947-0070-40a4-af96-7ed7bf5d4c14"/>
+    <ds:schemaRef ds:uri="cd6f8ff5-cd79-4d23-bab8-c57789527dcf"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>